--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.37200786974722</v>
+        <v>10.37200786974713</v>
       </c>
       <c r="D2">
-        <v>15.19633186815704</v>
+        <v>15.19633186815697</v>
       </c>
       <c r="E2">
-        <v>12.70865104248266</v>
+        <v>12.70865104248253</v>
       </c>
       <c r="F2">
-        <v>108.8704298761508</v>
+        <v>108.8704298761497</v>
       </c>
       <c r="G2">
-        <v>88.01143647318497</v>
+        <v>88.01143647318413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.47416546740562</v>
+        <v>16.47416546740548</v>
       </c>
       <c r="K2">
-        <v>6.90950060402378</v>
+        <v>6.909500604023726</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.160636810008763</v>
+        <v>9.160636810008743</v>
       </c>
       <c r="D3">
-        <v>13.38390657572045</v>
+        <v>13.3839065757205</v>
       </c>
       <c r="E3">
-        <v>11.207038186955</v>
+        <v>11.20703818695485</v>
       </c>
       <c r="F3">
-        <v>96.23393722626724</v>
+        <v>96.23393722626707</v>
       </c>
       <c r="G3">
-        <v>77.74776668959503</v>
+        <v>77.74776668959498</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.53377604741569</v>
+        <v>14.53377604741564</v>
       </c>
       <c r="K3">
-        <v>6.149779919150096</v>
+        <v>6.149779919150013</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.501332611265918</v>
+        <v>8.501332611265976</v>
       </c>
       <c r="D4">
-        <v>12.40465810734272</v>
+        <v>12.40465810734266</v>
       </c>
       <c r="E4">
         <v>10.39239541566274</v>
       </c>
       <c r="F4">
-        <v>89.38905681337134</v>
+        <v>89.38905681337138</v>
       </c>
       <c r="G4">
         <v>72.18523352561625</v>
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.48207431725859</v>
+        <v>13.48207431725857</v>
       </c>
       <c r="K4">
-        <v>5.823767238151141</v>
+        <v>5.823767238151115</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.242593708848453</v>
+        <v>8.242593708848378</v>
       </c>
       <c r="D5">
-        <v>12.02136376388207</v>
+        <v>12.02136376388196</v>
       </c>
       <c r="E5">
-        <v>10.10973482157912</v>
+        <v>10.1097348215791</v>
       </c>
       <c r="F5">
-        <v>86.71017162621297</v>
+        <v>86.71017162621246</v>
       </c>
       <c r="G5">
-        <v>70.00724897459223</v>
+        <v>70.00724897459177</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.06987517381375</v>
+        <v>13.06987517381369</v>
       </c>
       <c r="K5">
-        <v>5.732141982862028</v>
+        <v>5.732141982862031</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.200041733122944</v>
+        <v>8.200041733123035</v>
       </c>
       <c r="D6">
-        <v>11.95837340233043</v>
+        <v>11.95837340233034</v>
       </c>
       <c r="E6">
-        <v>10.06667081404128</v>
+        <v>10.06667081404131</v>
       </c>
       <c r="F6">
-        <v>86.27003547428502</v>
+        <v>86.27003547428467</v>
       </c>
       <c r="G6">
-        <v>69.64934622165146</v>
+        <v>69.64934622165109</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.00210686422124</v>
+        <v>13.00210686422126</v>
       </c>
       <c r="K6">
-        <v>5.717378343776884</v>
+        <v>5.71737834377687</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.497812060706114</v>
+        <v>8.497812060706131</v>
       </c>
       <c r="D7">
-        <v>12.39943939080801</v>
+        <v>12.39943939080794</v>
       </c>
       <c r="E7">
-        <v>10.38804898231742</v>
+        <v>10.38804898231736</v>
       </c>
       <c r="F7">
-        <v>89.35257698892279</v>
+        <v>89.35257698892262</v>
       </c>
       <c r="G7">
-        <v>72.15557894746757</v>
+        <v>72.15557894746743</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.47646402888977</v>
+        <v>13.47646402888971</v>
       </c>
       <c r="K7">
-        <v>5.822499424463251</v>
+        <v>5.822499424463246</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D8">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E8">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F8">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G8">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K8">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D9">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E9">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F9">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G9">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K9">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D10">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E10">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F10">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G10">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K10">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D11">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E11">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F11">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G11">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K11">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D12">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E12">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F12">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G12">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K12">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D13">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E13">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F13">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G13">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K13">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D14">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E14">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F14">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G14">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K14">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D15">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E15">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F15">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G15">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K15">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D16">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E16">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F16">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G16">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K16">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D17">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E17">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F17">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G17">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K17">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D18">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E18">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F18">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G18">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K18">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D19">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E19">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F19">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G19">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K19">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D20">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E20">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F20">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G20">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K20">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D21">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E21">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F21">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G21">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K21">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D22">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E22">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F22">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G22">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K22">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D23">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E23">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F23">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G23">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K23">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D24">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E24">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F24">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G24">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K24">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.92607334717289</v>
+        <v>9.926073347172878</v>
       </c>
       <c r="D25">
-        <v>14.52674182489595</v>
+        <v>14.52674182489597</v>
       </c>
       <c r="E25">
-        <v>12.1549811283276</v>
+        <v>12.15498112832757</v>
       </c>
       <c r="F25">
-        <v>104.2103235603035</v>
+        <v>104.2103235603037</v>
       </c>
       <c r="G25">
-        <v>84.22684381236037</v>
+        <v>84.22684381236056</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.75833111616173</v>
+        <v>15.75833111616178</v>
       </c>
       <c r="K25">
-        <v>6.628843654027724</v>
+        <v>6.628843654027708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.37200786974713</v>
+        <v>10.37200786974722</v>
       </c>
       <c r="D2">
-        <v>15.19633186815697</v>
+        <v>15.19633186815704</v>
       </c>
       <c r="E2">
-        <v>12.70865104248253</v>
+        <v>12.70865104248266</v>
       </c>
       <c r="F2">
-        <v>108.8704298761497</v>
+        <v>108.8704298761508</v>
       </c>
       <c r="G2">
-        <v>88.01143647318413</v>
+        <v>88.01143647318497</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.47416546740548</v>
+        <v>16.47416546740562</v>
       </c>
       <c r="K2">
-        <v>6.909500604023726</v>
+        <v>6.90950060402378</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.160636810008743</v>
+        <v>9.160636810008763</v>
       </c>
       <c r="D3">
-        <v>13.3839065757205</v>
+        <v>13.38390657572045</v>
       </c>
       <c r="E3">
-        <v>11.20703818695485</v>
+        <v>11.207038186955</v>
       </c>
       <c r="F3">
-        <v>96.23393722626707</v>
+        <v>96.23393722626724</v>
       </c>
       <c r="G3">
-        <v>77.74776668959498</v>
+        <v>77.74776668959503</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.53377604741564</v>
+        <v>14.53377604741569</v>
       </c>
       <c r="K3">
-        <v>6.149779919150013</v>
+        <v>6.149779919150096</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.501332611265976</v>
+        <v>8.501332611265918</v>
       </c>
       <c r="D4">
-        <v>12.40465810734266</v>
+        <v>12.40465810734272</v>
       </c>
       <c r="E4">
         <v>10.39239541566274</v>
       </c>
       <c r="F4">
-        <v>89.38905681337138</v>
+        <v>89.38905681337134</v>
       </c>
       <c r="G4">
         <v>72.18523352561625</v>
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.48207431725857</v>
+        <v>13.48207431725859</v>
       </c>
       <c r="K4">
-        <v>5.823767238151115</v>
+        <v>5.823767238151141</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.242593708848378</v>
+        <v>8.242593708848453</v>
       </c>
       <c r="D5">
-        <v>12.02136376388196</v>
+        <v>12.02136376388207</v>
       </c>
       <c r="E5">
-        <v>10.1097348215791</v>
+        <v>10.10973482157912</v>
       </c>
       <c r="F5">
-        <v>86.71017162621246</v>
+        <v>86.71017162621297</v>
       </c>
       <c r="G5">
-        <v>70.00724897459177</v>
+        <v>70.00724897459223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.06987517381369</v>
+        <v>13.06987517381375</v>
       </c>
       <c r="K5">
-        <v>5.732141982862031</v>
+        <v>5.732141982862028</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.200041733123035</v>
+        <v>8.200041733122944</v>
       </c>
       <c r="D6">
-        <v>11.95837340233034</v>
+        <v>11.95837340233043</v>
       </c>
       <c r="E6">
-        <v>10.06667081404131</v>
+        <v>10.06667081404128</v>
       </c>
       <c r="F6">
-        <v>86.27003547428467</v>
+        <v>86.27003547428502</v>
       </c>
       <c r="G6">
-        <v>69.64934622165109</v>
+        <v>69.64934622165146</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.00210686422126</v>
+        <v>13.00210686422124</v>
       </c>
       <c r="K6">
-        <v>5.71737834377687</v>
+        <v>5.717378343776884</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.497812060706131</v>
+        <v>8.497812060706114</v>
       </c>
       <c r="D7">
-        <v>12.39943939080794</v>
+        <v>12.39943939080801</v>
       </c>
       <c r="E7">
-        <v>10.38804898231736</v>
+        <v>10.38804898231742</v>
       </c>
       <c r="F7">
-        <v>89.35257698892262</v>
+        <v>89.35257698892279</v>
       </c>
       <c r="G7">
-        <v>72.15557894746743</v>
+        <v>72.15557894746757</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.47646402888971</v>
+        <v>13.47646402888977</v>
       </c>
       <c r="K7">
-        <v>5.822499424463246</v>
+        <v>5.822499424463251</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D8">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E8">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F8">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G8">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K8">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D9">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E9">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F9">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G9">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K9">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D10">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E10">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F10">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G10">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K10">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D11">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E11">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F11">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G11">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K11">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D12">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E12">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F12">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G12">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K12">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D13">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E13">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F13">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G13">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K13">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D14">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E14">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F14">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G14">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K14">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D15">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E15">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F15">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G15">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K15">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D16">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E16">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F16">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G16">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K16">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D17">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E17">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F17">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G17">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K17">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D18">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E18">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F18">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G18">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K18">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D19">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E19">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F19">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G19">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K19">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D20">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E20">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F20">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G20">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K20">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D21">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E21">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F21">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G21">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K21">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D22">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E22">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F22">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G22">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K22">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D23">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E23">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F23">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G23">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K23">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D24">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E24">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F24">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G24">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K24">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.926073347172878</v>
+        <v>9.92607334717289</v>
       </c>
       <c r="D25">
-        <v>14.52674182489597</v>
+        <v>14.52674182489595</v>
       </c>
       <c r="E25">
-        <v>12.15498112832757</v>
+        <v>12.1549811283276</v>
       </c>
       <c r="F25">
-        <v>104.2103235603037</v>
+        <v>104.2103235603035</v>
       </c>
       <c r="G25">
-        <v>84.22684381236056</v>
+        <v>84.22684381236037</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.75833111616178</v>
+        <v>15.75833111616173</v>
       </c>
       <c r="K25">
-        <v>6.628843654027708</v>
+        <v>6.628843654027724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,701 +406,776 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.37200786974722</v>
+        <v>10.36259382524985</v>
       </c>
       <c r="D2">
-        <v>15.19633186815704</v>
+        <v>15.15315814026853</v>
       </c>
       <c r="E2">
-        <v>12.70865104248266</v>
+        <v>12.7008849562738</v>
       </c>
       <c r="F2">
-        <v>108.8704298761508</v>
+        <v>108.6476786133136</v>
       </c>
       <c r="G2">
-        <v>88.01143647318497</v>
+        <v>88.04025474395738</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>87.64292443234038</v>
       </c>
       <c r="I2">
-        <v>16.47416546740562</v>
-      </c>
-      <c r="K2">
-        <v>6.90950060402378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>16.4488545290747</v>
+      </c>
+      <c r="L2">
+        <v>6.906872475768309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.160636810008763</v>
+        <v>9.155893196860184</v>
       </c>
       <c r="D3">
-        <v>13.38390657572045</v>
+        <v>13.35128701035087</v>
       </c>
       <c r="E3">
-        <v>11.207038186955</v>
+        <v>11.20465205666088</v>
       </c>
       <c r="F3">
-        <v>96.23393722626724</v>
+        <v>96.07477619911425</v>
       </c>
       <c r="G3">
-        <v>77.74776668959503</v>
+        <v>77.80394938937161</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>77.48973215005005</v>
       </c>
       <c r="I3">
-        <v>14.53377604741569</v>
-      </c>
-      <c r="K3">
-        <v>6.149779919150096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>14.51722931959416</v>
+      </c>
+      <c r="L3">
+        <v>6.149717570527638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.501332611265918</v>
+        <v>8.498070771267251</v>
       </c>
       <c r="D4">
-        <v>12.40465810734272</v>
+        <v>12.37611052782055</v>
       </c>
       <c r="E4">
-        <v>10.39239541566274</v>
+        <v>10.39159915140798</v>
       </c>
       <c r="F4">
-        <v>89.38905681337134</v>
+        <v>89.25327260165689</v>
       </c>
       <c r="G4">
-        <v>72.18523352561625</v>
+        <v>72.24722696842916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>71.98616919106476</v>
       </c>
       <c r="I4">
-        <v>13.48207431725859</v>
-      </c>
-      <c r="K4">
-        <v>5.823767238151141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>13.46854901761984</v>
+      </c>
+      <c r="L4">
+        <v>5.825160676434368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.242593708848453</v>
+        <v>8.239791133677981</v>
       </c>
       <c r="D5">
-        <v>12.02136376388207</v>
+        <v>11.99422261906208</v>
       </c>
       <c r="E5">
-        <v>10.10973482157912</v>
+        <v>10.11011625497813</v>
       </c>
       <c r="F5">
-        <v>86.71017162621297</v>
+        <v>86.58226350298477</v>
       </c>
       <c r="G5">
-        <v>70.00724897459223</v>
+        <v>70.07048147208866</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>69.8321547093138</v>
       </c>
       <c r="I5">
-        <v>13.06987517381375</v>
-      </c>
-      <c r="K5">
-        <v>5.732141982862028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>13.05733543133664</v>
+      </c>
+      <c r="L5">
+        <v>5.733640627764916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.200041733122944</v>
+        <v>8.197309271689534</v>
       </c>
       <c r="D6">
-        <v>11.95837340233043</v>
+        <v>11.93145509183777</v>
       </c>
       <c r="E6">
-        <v>10.06667081404128</v>
+        <v>10.06711289144231</v>
       </c>
       <c r="F6">
-        <v>86.27003547428502</v>
+        <v>86.14336502509909</v>
       </c>
       <c r="G6">
-        <v>69.64934622165146</v>
+        <v>69.7127364991219</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>69.47825948530691</v>
       </c>
       <c r="I6">
-        <v>13.00210686422124</v>
-      </c>
-      <c r="K6">
-        <v>5.717378343776884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12.98972036541345</v>
+      </c>
+      <c r="L6">
+        <v>5.718891381521547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.497812060706114</v>
+        <v>8.494556871627523</v>
       </c>
       <c r="D7">
-        <v>12.39943939080801</v>
+        <v>12.37091157672238</v>
       </c>
       <c r="E7">
-        <v>10.38804898231742</v>
+        <v>10.38725962444715</v>
       </c>
       <c r="F7">
-        <v>89.35257698892279</v>
+        <v>89.21690421629098</v>
       </c>
       <c r="G7">
-        <v>72.15557894746757</v>
+        <v>72.21759266563049</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>71.95683661712745</v>
       </c>
       <c r="I7">
-        <v>13.47646402888977</v>
-      </c>
-      <c r="K7">
-        <v>5.822499424463251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>13.46295279588336</v>
+      </c>
+      <c r="L7">
+        <v>5.823894510588749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D8">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E8">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F8">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G8">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I8">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K8">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L8">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D9">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E9">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F9">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G9">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I9">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K9">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L9">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D10">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E10">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F10">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G10">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I10">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K10">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L10">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D11">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E11">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F11">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G11">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I11">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K11">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L11">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D12">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E12">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F12">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G12">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I12">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K12">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L12">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D13">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E13">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F13">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G13">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I13">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K13">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L13">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D14">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E14">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F14">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G14">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I14">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K14">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L14">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D15">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E15">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F15">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G15">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I15">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K15">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L15">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D16">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E16">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F16">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G16">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I16">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K16">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L16">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D17">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E17">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F17">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G17">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I17">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K17">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L17">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D18">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E18">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F18">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G18">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I18">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K18">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L18">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D19">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E19">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F19">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G19">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I19">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K19">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L19">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D20">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E20">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F20">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G20">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I20">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K20">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L20">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D21">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E21">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F21">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G21">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I21">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K21">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L21">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D22">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E22">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F22">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G22">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I22">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K22">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L22">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D23">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E23">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F23">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G23">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I23">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K23">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L23">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D24">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E24">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F24">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G24">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I24">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K24">
-        <v>6.628843654027724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L24">
+        <v>6.627427467620856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.92607334717289</v>
+        <v>9.918787631562902</v>
       </c>
       <c r="D25">
-        <v>14.52674182489595</v>
+        <v>14.48810065996062</v>
       </c>
       <c r="E25">
-        <v>12.1549811283276</v>
+        <v>12.14971343282458</v>
       </c>
       <c r="F25">
-        <v>104.2103235603035</v>
+        <v>104.0153133020835</v>
       </c>
       <c r="G25">
-        <v>84.22684381236037</v>
+        <v>84.26924847937505</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>83.90059377281349</v>
       </c>
       <c r="I25">
-        <v>15.75833111616173</v>
-      </c>
-      <c r="K25">
-        <v>6.628843654027724</v>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>15.73692347482906</v>
+      </c>
+      <c r="L25">
+        <v>6.627427467620856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.839345399421656</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.673058098480885</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6.013278958132667</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>69.75214923559585</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.190366192449742</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.759376414419183</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.15887527359575</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.583795694432965</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.3761952665684</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>7.652883635447793</v>
+      </c>
+      <c r="D3">
+        <v>5.454764067063324</v>
+      </c>
+      <c r="E3">
+        <v>6.068465251763606</v>
+      </c>
+      <c r="F3">
+        <v>67.10620833288871</v>
+      </c>
+      <c r="G3">
+        <v>2.205904744400088</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.735557900944187</v>
+      </c>
+      <c r="K3">
+        <v>20.20490421130685</v>
+      </c>
+      <c r="L3">
+        <v>4.601030166642063</v>
+      </c>
+      <c r="M3">
+        <v>15.9515100968693</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.543376260922698</v>
+      </c>
+      <c r="D4">
+        <v>5.319881762151542</v>
+      </c>
+      <c r="E4">
+        <v>6.104459498027848</v>
+      </c>
+      <c r="F4">
+        <v>65.48571662632897</v>
+      </c>
+      <c r="G4">
+        <v>2.21559123332078</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.723565761396984</v>
+      </c>
+      <c r="K4">
+        <v>19.62504621828601</v>
+      </c>
+      <c r="L4">
+        <v>4.612116706024414</v>
+      </c>
+      <c r="M4">
+        <v>15.70409127202933</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>7.499988576409803</v>
+      </c>
+      <c r="D5">
+        <v>5.264682372213001</v>
+      </c>
+      <c r="E5">
+        <v>6.119659776095062</v>
+      </c>
+      <c r="F5">
+        <v>64.82648236706991</v>
+      </c>
+      <c r="G5">
+        <v>2.219581057204015</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.719307325883062</v>
+      </c>
+      <c r="K5">
+        <v>19.39040660330846</v>
+      </c>
+      <c r="L5">
+        <v>4.616762645545222</v>
+      </c>
+      <c r="M5">
+        <v>15.60658720129868</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>7.492858444429216</v>
+      </c>
+      <c r="D6">
+        <v>5.255502015760598</v>
+      </c>
+      <c r="E6">
+        <v>6.122215976164613</v>
+      </c>
+      <c r="F6">
+        <v>64.71709003180425</v>
+      </c>
+      <c r="G6">
+        <v>2.22024629105246</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.718637245056907</v>
+      </c>
+      <c r="K6">
+        <v>19.35155123562902</v>
+      </c>
+      <c r="L6">
+        <v>4.617541871821125</v>
+      </c>
+      <c r="M6">
+        <v>15.59059647214297</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>7.542786126450174</v>
+      </c>
+      <c r="D7">
+        <v>5.319138290598155</v>
+      </c>
+      <c r="E7">
+        <v>6.104662336447305</v>
+      </c>
+      <c r="F7">
+        <v>65.47682118750474</v>
+      </c>
+      <c r="G7">
+        <v>2.215644862098918</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.723505828329895</v>
+      </c>
+      <c r="K7">
+        <v>19.62187480025617</v>
+      </c>
+      <c r="L7">
+        <v>4.612178842565467</v>
+      </c>
+      <c r="M7">
+        <v>15.70276288946089</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7.774009212777166</v>
+      </c>
+      <c r="D8">
+        <v>5.597951249914486</v>
+      </c>
+      <c r="E8">
+        <v>6.031870451454526</v>
+      </c>
+      <c r="F8">
+        <v>68.8389891796148</v>
+      </c>
+      <c r="G8">
+        <v>2.195697355118386</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.750596330247353</v>
+      </c>
+      <c r="K8">
+        <v>20.82881244755698</v>
+      </c>
+      <c r="L8">
+        <v>4.58963417125604</v>
+      </c>
+      <c r="M8">
+        <v>16.226972021149</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8.267964026303327</v>
+      </c>
+      <c r="D9">
+        <v>6.139470309236655</v>
+      </c>
+      <c r="E9">
+        <v>5.905780460143585</v>
+      </c>
+      <c r="F9">
+        <v>75.46841136114119</v>
+      </c>
+      <c r="G9">
+        <v>2.157435174303531</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.8262912973911</v>
+      </c>
+      <c r="K9">
+        <v>23.23811153214036</v>
+      </c>
+      <c r="L9">
+        <v>4.549371545230785</v>
+      </c>
+      <c r="M9">
+        <v>17.36310058554209</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8.657760410531539</v>
+      </c>
+      <c r="D10">
+        <v>6.537282884631022</v>
+      </c>
+      <c r="E10">
+        <v>5.823174415611755</v>
+      </c>
+      <c r="F10">
+        <v>80.37964256209489</v>
+      </c>
+      <c r="G10">
+        <v>2.129353008768056</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.89833425641734</v>
+      </c>
+      <c r="K10">
+        <v>25.03494682740147</v>
+      </c>
+      <c r="L10">
+        <v>4.522120650153918</v>
+      </c>
+      <c r="M10">
+        <v>18.26900431222364</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>8.841718183628835</v>
+      </c>
+      <c r="D11">
+        <v>6.719307407615285</v>
+      </c>
+      <c r="E11">
+        <v>5.787745176875561</v>
+      </c>
+      <c r="F11">
+        <v>82.63138724548213</v>
+      </c>
+      <c r="G11">
+        <v>2.116448555378681</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.935388255724672</v>
+      </c>
+      <c r="K11">
+        <v>25.86050274280784</v>
+      </c>
+      <c r="L11">
+        <v>4.510213771564208</v>
+      </c>
+      <c r="M11">
+        <v>18.69856538877647</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>8.912428387531753</v>
+      </c>
+      <c r="D12">
+        <v>6.788507577930293</v>
+      </c>
+      <c r="E12">
+        <v>5.774635539804137</v>
+      </c>
+      <c r="F12">
+        <v>83.48770432382975</v>
+      </c>
+      <c r="G12">
+        <v>2.111529407549773</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.950106843539999</v>
+      </c>
+      <c r="K12">
+        <v>26.18376111281087</v>
+      </c>
+      <c r="L12">
+        <v>4.505774228327051</v>
+      </c>
+      <c r="M12">
+        <v>18.86398543636139</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>8.897151163782185</v>
+      </c>
+      <c r="D13">
+        <v>6.773589772153181</v>
+      </c>
+      <c r="E13">
+        <v>5.77744533688105</v>
+      </c>
+      <c r="F13">
+        <v>83.30309817873992</v>
+      </c>
+      <c r="G13">
+        <v>2.112590529597323</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.946905103022964</v>
+      </c>
+      <c r="K13">
+        <v>26.10692259584563</v>
+      </c>
+      <c r="L13">
+        <v>4.506727295362475</v>
+      </c>
+      <c r="M13">
+        <v>18.82823198385627</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>8.847513869788944</v>
+      </c>
+      <c r="D14">
+        <v>6.724994311888645</v>
+      </c>
+      <c r="E14">
+        <v>5.786660507897143</v>
+      </c>
+      <c r="F14">
+        <v>82.70175659843211</v>
+      </c>
+      <c r="G14">
+        <v>2.116044594627101</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.936584939599562</v>
+      </c>
+      <c r="K14">
+        <v>25.88631503684922</v>
+      </c>
+      <c r="L14">
+        <v>4.509847143788366</v>
+      </c>
+      <c r="M14">
+        <v>18.71211769862291</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>8.817249593385231</v>
+      </c>
+      <c r="D15">
+        <v>6.695267611093997</v>
+      </c>
+      <c r="E15">
+        <v>5.792344926524566</v>
+      </c>
+      <c r="F15">
+        <v>82.33392916204203</v>
+      </c>
+      <c r="G15">
+        <v>2.11815561869401</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.930355346568726</v>
+      </c>
+      <c r="K15">
+        <v>25.75139964942472</v>
+      </c>
+      <c r="L15">
+        <v>4.511767140671393</v>
+      </c>
+      <c r="M15">
+        <v>18.64136170685942</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>8.645879343878788</v>
+      </c>
+      <c r="D16">
+        <v>6.525417951180271</v>
+      </c>
+      <c r="E16">
+        <v>5.825532843629212</v>
+      </c>
+      <c r="F16">
+        <v>80.23292577794642</v>
+      </c>
+      <c r="G16">
+        <v>2.130192608572816</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.896004669912053</v>
+      </c>
+      <c r="K16">
+        <v>24.98118644821778</v>
+      </c>
+      <c r="L16">
+        <v>4.522908550690007</v>
+      </c>
+      <c r="M16">
+        <v>18.24130187805805</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>8.542507764183412</v>
+      </c>
+      <c r="D17">
+        <v>6.421567193185792</v>
+      </c>
+      <c r="E17">
+        <v>5.846441307998635</v>
+      </c>
+      <c r="F17">
+        <v>78.94920844990658</v>
+      </c>
+      <c r="G17">
+        <v>2.137534613055634</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.876075287790258</v>
+      </c>
+      <c r="K17">
+        <v>24.51098641409686</v>
+      </c>
+      <c r="L17">
+        <v>4.529868053839269</v>
+      </c>
+      <c r="M17">
+        <v>18.0004994638347</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>8.48366867681756</v>
+      </c>
+      <c r="D18">
+        <v>6.361925754334805</v>
+      </c>
+      <c r="E18">
+        <v>5.858669698877978</v>
+      </c>
+      <c r="F18">
+        <v>78.21241957725475</v>
+      </c>
+      <c r="G18">
+        <v>2.1417462936995</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.865010500428069</v>
+      </c>
+      <c r="K18">
+        <v>24.241278490707</v>
+      </c>
+      <c r="L18">
+        <v>4.533917126691109</v>
+      </c>
+      <c r="M18">
+        <v>17.86362103426076</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>8.463850409388423</v>
+      </c>
+      <c r="D19">
+        <v>6.341744624408023</v>
+      </c>
+      <c r="E19">
+        <v>5.862844850012214</v>
+      </c>
+      <c r="F19">
+        <v>77.96319763544238</v>
+      </c>
+      <c r="G19">
+        <v>2.143170746005416</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.861330538885561</v>
+      </c>
+      <c r="K19">
+        <v>24.15007836388442</v>
+      </c>
+      <c r="L19">
+        <v>4.535296034802714</v>
+      </c>
+      <c r="M19">
+        <v>17.81754923982818</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>8.553447341619064</v>
+      </c>
+      <c r="D20">
+        <v>6.432612120811891</v>
+      </c>
+      <c r="E20">
+        <v>5.844194635120123</v>
+      </c>
+      <c r="F20">
+        <v>79.08569289155831</v>
+      </c>
+      <c r="G20">
+        <v>2.136754300259815</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.87815512745287</v>
+      </c>
+      <c r="K20">
+        <v>24.5609614331242</v>
+      </c>
+      <c r="L20">
+        <v>4.529122434720642</v>
+      </c>
+      <c r="M20">
+        <v>18.02596362333439</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>8.862064156483402</v>
+      </c>
+      <c r="D21">
+        <v>6.73925950280679</v>
+      </c>
+      <c r="E21">
+        <v>5.783945486541201</v>
+      </c>
+      <c r="F21">
+        <v>82.87827607704314</v>
+      </c>
+      <c r="G21">
+        <v>2.115031058105143</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.939596944025948</v>
+      </c>
+      <c r="K21">
+        <v>25.9510675457387</v>
+      </c>
+      <c r="L21">
+        <v>4.508928894868173</v>
+      </c>
+      <c r="M21">
+        <v>18.74614616645746</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>9.069947578442351</v>
+      </c>
+      <c r="D22">
+        <v>6.941332825742795</v>
+      </c>
+      <c r="E22">
+        <v>5.74635523265919</v>
+      </c>
+      <c r="F22">
+        <v>85.37889979901338</v>
+      </c>
+      <c r="G22">
+        <v>2.100635661569928</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.983800192016551</v>
+      </c>
+      <c r="K22">
+        <v>27.02245177139966</v>
+      </c>
+      <c r="L22">
+        <v>4.496135002322191</v>
+      </c>
+      <c r="M22">
+        <v>19.23306000434185</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>8.95839059466045</v>
+      </c>
+      <c r="D23">
+        <v>6.833282477780569</v>
+      </c>
+      <c r="E23">
+        <v>5.766255289609892</v>
+      </c>
+      <c r="F23">
+        <v>84.04179777964572</v>
+      </c>
+      <c r="G23">
+        <v>2.108342185560281</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.959810702108594</v>
+      </c>
+      <c r="K23">
+        <v>26.43031713179822</v>
+      </c>
+      <c r="L23">
+        <v>4.502926713710994</v>
+      </c>
+      <c r="M23">
+        <v>18.97159641011151</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>8.548499725699758</v>
+      </c>
+      <c r="D24">
+        <v>6.42761851897446</v>
+      </c>
+      <c r="E24">
+        <v>5.845209708402</v>
+      </c>
+      <c r="F24">
+        <v>79.0239844994024</v>
+      </c>
+      <c r="G24">
+        <v>2.137107107750556</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.877213613419495</v>
+      </c>
+      <c r="K24">
+        <v>24.53836583225351</v>
+      </c>
+      <c r="L24">
+        <v>4.529459379644736</v>
+      </c>
+      <c r="M24">
+        <v>18.01444642854265</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>8.129818324648065</v>
+      </c>
+      <c r="D25">
+        <v>5.993269767771707</v>
+      </c>
+      <c r="E25">
+        <v>5.938120374650204</v>
+      </c>
+      <c r="F25">
+        <v>73.66992726236398</v>
+      </c>
+      <c r="G25">
+        <v>2.167740862784362</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.803142818449469</v>
+      </c>
+      <c r="K25">
+        <v>22.58204431773117</v>
+      </c>
+      <c r="L25">
+        <v>4.559849005005705</v>
+      </c>
+      <c r="M25">
+        <v>17.04374759255959</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.839345399421656</v>
+        <v>11.95318627383047</v>
       </c>
       <c r="D2">
-        <v>5.673058098480885</v>
+        <v>4.738517207037305</v>
       </c>
       <c r="E2">
-        <v>6.013278958132667</v>
+        <v>11.43271364712148</v>
       </c>
       <c r="F2">
-        <v>69.75214923559585</v>
+        <v>76.67680597230219</v>
       </c>
       <c r="G2">
-        <v>2.190366192449742</v>
+        <v>3.890156783053762</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.759376414419183</v>
+        <v>12.24735252397662</v>
       </c>
       <c r="K2">
-        <v>21.15887527359575</v>
+        <v>28.79401591188076</v>
       </c>
       <c r="L2">
-        <v>4.583795694432965</v>
+        <v>8.223468179656093</v>
       </c>
       <c r="M2">
-        <v>16.3761952665684</v>
+        <v>26.34677980467688</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.652883635447793</v>
+        <v>11.96268488544085</v>
       </c>
       <c r="D3">
-        <v>5.454764067063324</v>
+        <v>4.658036342586691</v>
       </c>
       <c r="E3">
-        <v>6.068465251763606</v>
+        <v>11.46466957590377</v>
       </c>
       <c r="F3">
-        <v>67.10620833288871</v>
+        <v>76.13546744708496</v>
       </c>
       <c r="G3">
-        <v>2.205904744400088</v>
+        <v>3.895297061369014</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.735557900944187</v>
+        <v>12.25686859821378</v>
       </c>
       <c r="K3">
-        <v>20.20490421130685</v>
+        <v>28.77485417353097</v>
       </c>
       <c r="L3">
-        <v>4.601030166642063</v>
+        <v>8.23207485600294</v>
       </c>
       <c r="M3">
-        <v>15.9515100968693</v>
+        <v>26.39698210732318</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.543376260922698</v>
+        <v>11.97099046658522</v>
       </c>
       <c r="D4">
-        <v>5.319881762151542</v>
+        <v>4.607588710844154</v>
       </c>
       <c r="E4">
-        <v>6.104459498027848</v>
+        <v>11.48555058742409</v>
       </c>
       <c r="F4">
-        <v>65.48571662632897</v>
+        <v>75.8107266946855</v>
       </c>
       <c r="G4">
-        <v>2.21559123332078</v>
+        <v>3.898611801271855</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.723565761396984</v>
+        <v>12.26363514847687</v>
       </c>
       <c r="K4">
-        <v>19.62504621828601</v>
+        <v>28.77231748875564</v>
       </c>
       <c r="L4">
-        <v>4.612116706024414</v>
+        <v>8.237668917598667</v>
       </c>
       <c r="M4">
-        <v>15.70409127202933</v>
+        <v>26.43441577521697</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.499988576409803</v>
+        <v>11.9749962203706</v>
       </c>
       <c r="D5">
-        <v>5.264682372213001</v>
+        <v>4.586781791182443</v>
       </c>
       <c r="E5">
-        <v>6.119659776095062</v>
+        <v>11.49437753053826</v>
       </c>
       <c r="F5">
-        <v>64.82648236706991</v>
+        <v>75.68037310963075</v>
       </c>
       <c r="G5">
-        <v>2.219581057204015</v>
+        <v>3.900002642265823</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.719307325883062</v>
+        <v>12.26662462221721</v>
       </c>
       <c r="K5">
-        <v>19.39040660330846</v>
+        <v>28.77360402789567</v>
       </c>
       <c r="L5">
-        <v>4.616762645545222</v>
+        <v>8.240026631702008</v>
       </c>
       <c r="M5">
-        <v>15.60658720129868</v>
+        <v>26.45132887293439</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.492858444429216</v>
+        <v>11.97569886227735</v>
       </c>
       <c r="D6">
-        <v>5.255502015760598</v>
+        <v>4.583312082489142</v>
       </c>
       <c r="E6">
-        <v>6.122215976164613</v>
+        <v>11.49586245735993</v>
       </c>
       <c r="F6">
-        <v>64.71709003180425</v>
+        <v>75.65884928292218</v>
       </c>
       <c r="G6">
-        <v>2.22024629105246</v>
+        <v>3.900236014983041</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.718637245056907</v>
+        <v>12.2671350310626</v>
       </c>
       <c r="K6">
-        <v>19.35155123562902</v>
+        <v>28.77395774538535</v>
       </c>
       <c r="L6">
-        <v>4.617541871821125</v>
+        <v>8.240422852197971</v>
       </c>
       <c r="M6">
-        <v>15.59059647214297</v>
+        <v>26.45423734652417</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.542786126450174</v>
+        <v>11.97104197569765</v>
       </c>
       <c r="D7">
-        <v>5.319138290598155</v>
+        <v>4.607309096102745</v>
       </c>
       <c r="E7">
-        <v>6.104662336447305</v>
+        <v>11.48566834280193</v>
       </c>
       <c r="F7">
-        <v>65.47682118750474</v>
+        <v>75.80896060503517</v>
       </c>
       <c r="G7">
-        <v>2.215644862098918</v>
+        <v>3.898630396209618</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.723505828329895</v>
+        <v>12.26367452627736</v>
       </c>
       <c r="K7">
-        <v>19.62187480025617</v>
+        <v>28.77232544670024</v>
       </c>
       <c r="L7">
-        <v>4.612178842565467</v>
+        <v>8.237700398035706</v>
       </c>
       <c r="M7">
-        <v>15.70276288946089</v>
+        <v>26.43463716038748</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.774009212777166</v>
+        <v>11.95594762078488</v>
       </c>
       <c r="D8">
-        <v>5.597951249914486</v>
+        <v>4.710987768098863</v>
       </c>
       <c r="E8">
-        <v>6.031870451454526</v>
+        <v>11.44347111441135</v>
       </c>
       <c r="F8">
-        <v>68.8389891796148</v>
+        <v>76.48860255429575</v>
       </c>
       <c r="G8">
-        <v>2.195697355118386</v>
+        <v>3.891896344270079</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.750596330247353</v>
+        <v>12.25044184025257</v>
       </c>
       <c r="K8">
-        <v>20.82881244755698</v>
+        <v>28.78549388039293</v>
       </c>
       <c r="L8">
-        <v>4.58963417125604</v>
+        <v>8.226371672953553</v>
       </c>
       <c r="M8">
-        <v>16.226972021149</v>
+        <v>26.36271590107244</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.267964026303327</v>
+        <v>11.94600160600826</v>
       </c>
       <c r="D9">
-        <v>6.139470309236655</v>
+        <v>4.90567241814093</v>
       </c>
       <c r="E9">
-        <v>5.905780460143585</v>
+        <v>11.37067747693396</v>
       </c>
       <c r="F9">
-        <v>75.46841136114119</v>
+        <v>77.87928418740348</v>
       </c>
       <c r="G9">
-        <v>2.157435174303531</v>
+        <v>3.879941027849453</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.8262912973911</v>
+        <v>12.23183115041962</v>
       </c>
       <c r="K9">
-        <v>23.23811153214036</v>
+        <v>28.88447471154484</v>
       </c>
       <c r="L9">
-        <v>4.549371545230785</v>
+        <v>8.206600496006871</v>
       </c>
       <c r="M9">
-        <v>17.36310058554209</v>
+        <v>26.2742552979998</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.657760410531539</v>
+        <v>11.95070510815055</v>
       </c>
       <c r="D10">
-        <v>6.537282884631022</v>
+        <v>5.042885895874075</v>
       </c>
       <c r="E10">
-        <v>5.823174415611755</v>
+        <v>11.32320701003661</v>
       </c>
       <c r="F10">
-        <v>80.37964256209489</v>
+        <v>78.93245667796492</v>
       </c>
       <c r="G10">
-        <v>2.129353008768056</v>
+        <v>3.87190809844647</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.89833425641734</v>
+        <v>12.2226460867359</v>
       </c>
       <c r="K10">
-        <v>25.03494682740147</v>
+        <v>29.00157997439504</v>
       </c>
       <c r="L10">
-        <v>4.522120650153918</v>
+        <v>8.193548791223812</v>
       </c>
       <c r="M10">
-        <v>18.26900431222364</v>
+        <v>26.24147715102843</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.841718183628835</v>
+        <v>11.95545480597762</v>
       </c>
       <c r="D11">
-        <v>6.719307407615285</v>
+        <v>5.103932905953672</v>
       </c>
       <c r="E11">
-        <v>5.787745176875561</v>
+        <v>11.30290449167163</v>
       </c>
       <c r="F11">
-        <v>82.63138724548213</v>
+        <v>79.41751798541635</v>
       </c>
       <c r="G11">
-        <v>2.116448555378681</v>
+        <v>3.868414239095245</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.935388255724672</v>
+        <v>12.21944517536811</v>
       </c>
       <c r="K11">
-        <v>25.86050274280784</v>
+        <v>29.06440398518939</v>
       </c>
       <c r="L11">
-        <v>4.510213771564208</v>
+        <v>8.187927937543856</v>
       </c>
       <c r="M11">
-        <v>18.69856538877647</v>
+        <v>26.23358533601553</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.912428387531753</v>
+        <v>11.9576284282675</v>
       </c>
       <c r="D12">
-        <v>6.788507577930293</v>
+        <v>5.12684370186903</v>
       </c>
       <c r="E12">
-        <v>5.774635539804137</v>
+        <v>11.29540130598714</v>
       </c>
       <c r="F12">
-        <v>83.48770432382975</v>
+        <v>79.60197764590642</v>
       </c>
       <c r="G12">
-        <v>2.111529407549773</v>
+        <v>3.867114073089269</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.950106843539999</v>
+        <v>12.21837384369933</v>
       </c>
       <c r="K12">
-        <v>26.18376111281087</v>
+        <v>29.08955665716785</v>
       </c>
       <c r="L12">
-        <v>4.505774228327051</v>
+        <v>8.185844707161804</v>
       </c>
       <c r="M12">
-        <v>18.86398543636139</v>
+        <v>26.23160735250853</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.897151163782185</v>
+        <v>11.95714362831803</v>
       </c>
       <c r="D13">
-        <v>6.773589772153181</v>
+        <v>5.121918770460399</v>
       </c>
       <c r="E13">
-        <v>5.77744533688105</v>
+        <v>11.29700903967239</v>
       </c>
       <c r="F13">
-        <v>83.30309817873992</v>
+        <v>79.56221768280707</v>
       </c>
       <c r="G13">
-        <v>2.112590529597323</v>
+        <v>3.867393072204786</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.946905103022964</v>
+        <v>12.21859830912798</v>
       </c>
       <c r="K13">
-        <v>26.10692259584563</v>
+        <v>29.08407917446996</v>
       </c>
       <c r="L13">
-        <v>4.506727295362475</v>
+        <v>8.186291358695531</v>
       </c>
       <c r="M13">
-        <v>18.82823198385627</v>
+        <v>26.23198839312058</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.847513869788944</v>
+        <v>11.95562611792724</v>
       </c>
       <c r="D14">
-        <v>6.724994311888645</v>
+        <v>5.105821977430892</v>
       </c>
       <c r="E14">
-        <v>5.786660507897143</v>
+        <v>11.30228349852364</v>
       </c>
       <c r="F14">
-        <v>82.70175659843211</v>
+        <v>79.43267847954628</v>
       </c>
       <c r="G14">
-        <v>2.116044594627101</v>
+        <v>3.868306816067002</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.936584939599562</v>
+        <v>12.21935421344415</v>
       </c>
       <c r="K14">
-        <v>25.88631503684922</v>
+        <v>29.06644607264569</v>
       </c>
       <c r="L14">
-        <v>4.509847143788366</v>
+        <v>8.187755643106327</v>
       </c>
       <c r="M14">
-        <v>18.71211769862291</v>
+        <v>26.23340235012038</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.817249593385231</v>
+        <v>11.95474542388313</v>
       </c>
       <c r="D15">
-        <v>6.695267611093997</v>
+        <v>5.095935088564847</v>
       </c>
       <c r="E15">
-        <v>5.792344926524566</v>
+        <v>11.30553831590886</v>
       </c>
       <c r="F15">
-        <v>82.33392916204203</v>
+        <v>79.35343080133018</v>
       </c>
       <c r="G15">
-        <v>2.11815561869401</v>
+        <v>3.868869485314282</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.930355346568726</v>
+        <v>12.21983556765073</v>
       </c>
       <c r="K15">
-        <v>25.75139964942472</v>
+        <v>29.05582237614768</v>
       </c>
       <c r="L15">
-        <v>4.511767140671393</v>
+        <v>8.188658447388825</v>
       </c>
       <c r="M15">
-        <v>18.64136170685942</v>
+        <v>26.23440005777728</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.645879343878788</v>
+        <v>11.95044720419118</v>
       </c>
       <c r="D16">
-        <v>6.525417951180271</v>
+        <v>5.038867933619851</v>
       </c>
       <c r="E16">
-        <v>5.825532843629212</v>
+        <v>11.32455975308498</v>
       </c>
       <c r="F16">
-        <v>80.23292577794642</v>
+        <v>78.90087001285286</v>
       </c>
       <c r="G16">
-        <v>2.130192608572816</v>
+        <v>3.872139642112385</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.896004669912053</v>
+        <v>12.22287496204538</v>
       </c>
       <c r="K16">
-        <v>24.98118644821778</v>
+        <v>28.99766559674566</v>
       </c>
       <c r="L16">
-        <v>4.522908550690007</v>
+        <v>8.193922474306095</v>
       </c>
       <c r="M16">
-        <v>18.24130187805805</v>
+        <v>26.24213425165858</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.542507764183412</v>
+        <v>11.94847873777487</v>
       </c>
       <c r="D17">
-        <v>6.421567193185792</v>
+        <v>5.003501051205453</v>
       </c>
       <c r="E17">
-        <v>5.846441307998635</v>
+        <v>11.33655909855357</v>
       </c>
       <c r="F17">
-        <v>78.94920844990658</v>
+        <v>78.62471032117237</v>
       </c>
       <c r="G17">
-        <v>2.137534613055634</v>
+        <v>3.874186723697996</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.876075287790258</v>
+        <v>12.22499004056158</v>
       </c>
       <c r="K17">
-        <v>24.51098641409686</v>
+        <v>28.96442765007908</v>
       </c>
       <c r="L17">
-        <v>4.529868053839269</v>
+        <v>8.197232660617175</v>
       </c>
       <c r="M17">
-        <v>18.0004994638347</v>
+        <v>26.24867767276498</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.48366867681756</v>
+        <v>11.94759223159697</v>
       </c>
       <c r="D18">
-        <v>6.361925754334805</v>
+        <v>4.983030322140642</v>
       </c>
       <c r="E18">
-        <v>5.858669698877978</v>
+        <v>11.34358246786046</v>
       </c>
       <c r="F18">
-        <v>78.21241957725475</v>
+        <v>78.46643725463144</v>
       </c>
       <c r="G18">
-        <v>2.1417462936995</v>
+        <v>3.875379255364614</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.865010500428069</v>
+        <v>12.22629856385853</v>
       </c>
       <c r="K18">
-        <v>24.241278490707</v>
+        <v>28.94620995246562</v>
       </c>
       <c r="L18">
-        <v>4.533917126691109</v>
+        <v>8.1991663904566</v>
       </c>
       <c r="M18">
-        <v>17.86362103426076</v>
+        <v>26.25310191536663</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.463850409388423</v>
+        <v>11.94733428119432</v>
       </c>
       <c r="D19">
-        <v>6.341744624408023</v>
+        <v>4.97607747632918</v>
       </c>
       <c r="E19">
-        <v>5.862844850012214</v>
+        <v>11.34598138197639</v>
       </c>
       <c r="F19">
-        <v>77.96319763544238</v>
+        <v>78.41294847046059</v>
       </c>
       <c r="G19">
-        <v>2.143170746005416</v>
+        <v>3.875785625691362</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.861330538885561</v>
+        <v>12.22675739884812</v>
       </c>
       <c r="K19">
-        <v>24.15007836388442</v>
+        <v>28.94019661288569</v>
       </c>
       <c r="L19">
-        <v>4.535296034802714</v>
+        <v>8.199826243289428</v>
       </c>
       <c r="M19">
-        <v>17.81754923982818</v>
+        <v>26.25471330997582</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.553447341619064</v>
+        <v>11.94866285648173</v>
       </c>
       <c r="D20">
-        <v>6.432612120811891</v>
+        <v>5.007279296552839</v>
       </c>
       <c r="E20">
-        <v>5.844194635120123</v>
+        <v>11.33526916229588</v>
       </c>
       <c r="F20">
-        <v>79.08569289155831</v>
+        <v>78.65404992096362</v>
       </c>
       <c r="G20">
-        <v>2.136754300259815</v>
+        <v>3.873967246394113</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.87815512745287</v>
+        <v>12.2247553649282</v>
       </c>
       <c r="K20">
-        <v>24.5609614331242</v>
+        <v>28.96787282453043</v>
       </c>
       <c r="L20">
-        <v>4.529122434720642</v>
+        <v>8.196877203358149</v>
       </c>
       <c r="M20">
-        <v>18.02596362333439</v>
+        <v>26.24791273080733</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.862064156483402</v>
+        <v>11.95606167332926</v>
       </c>
       <c r="D21">
-        <v>6.73925950280679</v>
+        <v>5.110555666885474</v>
       </c>
       <c r="E21">
-        <v>5.783945486541201</v>
+        <v>11.30072924973662</v>
       </c>
       <c r="F21">
-        <v>82.87827607704314</v>
+        <v>79.47070683513108</v>
       </c>
       <c r="G21">
-        <v>2.115031058105143</v>
+        <v>3.868037807725771</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.939596944025948</v>
+        <v>12.21912836337607</v>
       </c>
       <c r="K21">
-        <v>25.9510675457387</v>
+        <v>29.07158845962257</v>
       </c>
       <c r="L21">
-        <v>4.508928894868173</v>
+        <v>8.187324320689424</v>
       </c>
       <c r="M21">
-        <v>18.74614616645746</v>
+        <v>26.23295960628787</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.069947578442351</v>
+        <v>11.96308279343577</v>
       </c>
       <c r="D22">
-        <v>6.941332825742795</v>
+        <v>5.176845919865202</v>
       </c>
       <c r="E22">
-        <v>5.74635523265919</v>
+        <v>11.27923298524357</v>
       </c>
       <c r="F22">
-        <v>85.37889979901338</v>
+        <v>80.00893244710441</v>
       </c>
       <c r="G22">
-        <v>2.100635661569928</v>
+        <v>3.86429587245722</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.983800192016551</v>
+        <v>12.21627149155526</v>
       </c>
       <c r="K22">
-        <v>27.02245177139966</v>
+        <v>29.14730829664315</v>
       </c>
       <c r="L22">
-        <v>4.496135002322191</v>
+        <v>8.181344689004089</v>
       </c>
       <c r="M22">
-        <v>19.23306000434185</v>
+        <v>26.22907684338238</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.95839059466045</v>
+        <v>11.95913567203583</v>
       </c>
       <c r="D23">
-        <v>6.833282477780569</v>
+        <v>5.141578864851929</v>
       </c>
       <c r="E23">
-        <v>5.766255289609892</v>
+        <v>11.29060762958361</v>
       </c>
       <c r="F23">
-        <v>84.04179777964572</v>
+        <v>79.72128728325136</v>
       </c>
       <c r="G23">
-        <v>2.108342185560281</v>
+        <v>3.86628087567022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.959810702108594</v>
+        <v>12.21772108914903</v>
       </c>
       <c r="K23">
-        <v>26.43031713179822</v>
+        <v>29.10617322975905</v>
       </c>
       <c r="L23">
-        <v>4.502926713710994</v>
+        <v>8.184512077835599</v>
       </c>
       <c r="M23">
-        <v>18.97159641011151</v>
+        <v>26.23060997953032</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.548499725699758</v>
+        <v>11.94857885267808</v>
       </c>
       <c r="D24">
-        <v>6.42761851897446</v>
+        <v>5.005571580469357</v>
       </c>
       <c r="E24">
-        <v>5.845209708402</v>
+        <v>11.3358519537335</v>
       </c>
       <c r="F24">
-        <v>79.0239844994024</v>
+        <v>78.64078394055008</v>
       </c>
       <c r="G24">
-        <v>2.137107107750556</v>
+        <v>3.874066423364117</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.877213613419495</v>
+        <v>12.22486117356909</v>
       </c>
       <c r="K24">
-        <v>24.53836583225351</v>
+        <v>28.96631248433372</v>
       </c>
       <c r="L24">
-        <v>4.529459379644736</v>
+        <v>8.197037810068993</v>
       </c>
       <c r="M24">
-        <v>18.01444642854265</v>
+        <v>26.24825649810924</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.129818324648065</v>
+        <v>11.9465842809705</v>
       </c>
       <c r="D25">
-        <v>5.993269767771707</v>
+        <v>4.853988199574939</v>
       </c>
       <c r="E25">
-        <v>5.938120374650204</v>
+        <v>11.3893103387989</v>
       </c>
       <c r="F25">
-        <v>73.66992726236398</v>
+        <v>77.49725514481592</v>
       </c>
       <c r="G25">
-        <v>2.167740862784362</v>
+        <v>3.883042608074474</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.803142818449469</v>
+        <v>12.23607866932814</v>
       </c>
       <c r="K25">
-        <v>22.58204431773117</v>
+        <v>28.84987986193373</v>
       </c>
       <c r="L25">
-        <v>4.559849005005705</v>
+        <v>8.211689091635746</v>
       </c>
       <c r="M25">
-        <v>17.04374759255959</v>
+        <v>26.29253891553178</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.95318627383047</v>
+        <v>7.839345399421731</v>
       </c>
       <c r="D2">
-        <v>4.738517207037305</v>
+        <v>5.67305809848085</v>
       </c>
       <c r="E2">
-        <v>11.43271364712148</v>
+        <v>6.013278958132844</v>
       </c>
       <c r="F2">
-        <v>76.67680597230219</v>
+        <v>69.75214923559578</v>
       </c>
       <c r="G2">
-        <v>3.890156783053762</v>
+        <v>2.190366192449873</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.24735252397662</v>
+        <v>7.759376414419254</v>
       </c>
       <c r="K2">
-        <v>28.79401591188076</v>
+        <v>21.15887527359585</v>
       </c>
       <c r="L2">
-        <v>8.223468179656093</v>
+        <v>4.583795694432967</v>
       </c>
       <c r="M2">
-        <v>26.34677980467688</v>
+        <v>16.37619526656854</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.96268488544085</v>
+        <v>7.652883635447793</v>
       </c>
       <c r="D3">
-        <v>4.658036342586691</v>
+        <v>5.454764067063392</v>
       </c>
       <c r="E3">
-        <v>11.46466957590377</v>
+        <v>6.068465251763487</v>
       </c>
       <c r="F3">
-        <v>76.13546744708496</v>
+        <v>67.10620833288897</v>
       </c>
       <c r="G3">
-        <v>3.895297061369014</v>
+        <v>2.205904744400219</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.25686859821378</v>
+        <v>7.735557900944186</v>
       </c>
       <c r="K3">
-        <v>28.77485417353097</v>
+        <v>20.20490421130673</v>
       </c>
       <c r="L3">
-        <v>8.23207485600294</v>
+        <v>4.601030166642031</v>
       </c>
       <c r="M3">
-        <v>26.39698210732318</v>
+        <v>15.95151009686913</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.97099046658522</v>
+        <v>7.543376260922606</v>
       </c>
       <c r="D4">
-        <v>4.607588710844154</v>
+        <v>5.31988176215151</v>
       </c>
       <c r="E4">
-        <v>11.48555058742409</v>
+        <v>6.104459498027845</v>
       </c>
       <c r="F4">
-        <v>75.8107266946855</v>
+        <v>65.48571662632864</v>
       </c>
       <c r="G4">
-        <v>3.898611801271855</v>
+        <v>2.21559123332078</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.26363514847687</v>
+        <v>7.723565761396989</v>
       </c>
       <c r="K4">
-        <v>28.77231748875564</v>
+        <v>19.62504621828607</v>
       </c>
       <c r="L4">
-        <v>8.237668917598667</v>
+        <v>4.61211670602445</v>
       </c>
       <c r="M4">
-        <v>26.43441577521697</v>
+        <v>15.70409127202938</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.9749962203706</v>
+        <v>7.499988576410018</v>
       </c>
       <c r="D5">
-        <v>4.586781791182443</v>
+        <v>5.264682372212947</v>
       </c>
       <c r="E5">
-        <v>11.49437753053826</v>
+        <v>6.119659776094996</v>
       </c>
       <c r="F5">
-        <v>75.68037310963075</v>
+        <v>64.82648236706991</v>
       </c>
       <c r="G5">
-        <v>3.900002642265823</v>
+        <v>2.219581057204144</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.26662462221721</v>
+        <v>7.719307325883072</v>
       </c>
       <c r="K5">
-        <v>28.77360402789567</v>
+        <v>19.39040660330859</v>
       </c>
       <c r="L5">
-        <v>8.240026631702008</v>
+        <v>4.616762645545221</v>
       </c>
       <c r="M5">
-        <v>26.45132887293439</v>
+        <v>15.60658720129881</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.97569886227735</v>
+        <v>7.492858444428975</v>
       </c>
       <c r="D6">
-        <v>4.583312082489142</v>
+        <v>5.255502015760679</v>
       </c>
       <c r="E6">
-        <v>11.49586245735993</v>
+        <v>6.122215976164309</v>
       </c>
       <c r="F6">
-        <v>75.65884928292218</v>
+        <v>64.71709003180365</v>
       </c>
       <c r="G6">
-        <v>3.900236014983041</v>
+        <v>2.220246291052334</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.2671350310626</v>
+        <v>7.718637245056758</v>
       </c>
       <c r="K6">
-        <v>28.77395774538535</v>
+        <v>19.35155123562884</v>
       </c>
       <c r="L6">
-        <v>8.240422852197971</v>
+        <v>4.617541871821057</v>
       </c>
       <c r="M6">
-        <v>26.45423734652417</v>
+        <v>15.59059647214273</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.97104197569765</v>
+        <v>7.54278612645011</v>
       </c>
       <c r="D7">
-        <v>4.607309096102745</v>
+        <v>5.319138290598022</v>
       </c>
       <c r="E7">
-        <v>11.48566834280193</v>
+        <v>6.104662336447304</v>
       </c>
       <c r="F7">
-        <v>75.80896060503517</v>
+        <v>65.47682118750453</v>
       </c>
       <c r="G7">
-        <v>3.898630396209618</v>
+        <v>2.215644862098921</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.26367452627736</v>
+        <v>7.723505828329823</v>
       </c>
       <c r="K7">
-        <v>28.77232544670024</v>
+        <v>19.62187480025617</v>
       </c>
       <c r="L7">
-        <v>8.237700398035706</v>
+        <v>4.612178842565434</v>
       </c>
       <c r="M7">
-        <v>26.43463716038748</v>
+        <v>15.70276288946089</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.95594762078488</v>
+        <v>7.774009212777166</v>
       </c>
       <c r="D8">
-        <v>4.710987768098863</v>
+        <v>5.597951249914535</v>
       </c>
       <c r="E8">
-        <v>11.44347111441135</v>
+        <v>6.031870451454656</v>
       </c>
       <c r="F8">
-        <v>76.48860255429575</v>
+        <v>68.83898917961528</v>
       </c>
       <c r="G8">
-        <v>3.891896344270079</v>
+        <v>2.195697355118116</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.25044184025257</v>
+        <v>7.750596330247468</v>
       </c>
       <c r="K8">
-        <v>28.78549388039293</v>
+        <v>20.82881244755702</v>
       </c>
       <c r="L8">
-        <v>8.226371672953553</v>
+        <v>4.589634171256143</v>
       </c>
       <c r="M8">
-        <v>26.36271590107244</v>
+        <v>16.22697202114904</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.94600160600826</v>
+        <v>8.267964026303398</v>
       </c>
       <c r="D9">
-        <v>4.90567241814093</v>
+        <v>6.139470309236654</v>
       </c>
       <c r="E9">
-        <v>11.37067747693396</v>
+        <v>5.90578046014379</v>
       </c>
       <c r="F9">
-        <v>77.87928418740348</v>
+        <v>75.46841136114094</v>
       </c>
       <c r="G9">
-        <v>3.879941027849453</v>
+        <v>2.157435174303385</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.23183115041962</v>
+        <v>7.826291297391197</v>
       </c>
       <c r="K9">
-        <v>28.88447471154484</v>
+        <v>23.23811153214039</v>
       </c>
       <c r="L9">
-        <v>8.206600496006871</v>
+        <v>4.549371545230885</v>
       </c>
       <c r="M9">
-        <v>26.2742552979998</v>
+        <v>17.36310058554217</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.95070510815055</v>
+        <v>8.657760410531603</v>
       </c>
       <c r="D10">
-        <v>5.042885895874075</v>
+        <v>6.537282884631036</v>
       </c>
       <c r="E10">
-        <v>11.32320701003661</v>
+        <v>5.823174415611798</v>
       </c>
       <c r="F10">
-        <v>78.93245667796492</v>
+        <v>80.37964256209466</v>
       </c>
       <c r="G10">
-        <v>3.87190809844647</v>
+        <v>2.12935300876806</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.2226460867359</v>
+        <v>7.898334256417431</v>
       </c>
       <c r="K10">
-        <v>29.00157997439504</v>
+        <v>25.03494682740147</v>
       </c>
       <c r="L10">
-        <v>8.193548791223812</v>
+        <v>4.52212065015385</v>
       </c>
       <c r="M10">
-        <v>26.24147715102843</v>
+        <v>18.26900431222369</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.95545480597762</v>
+        <v>8.841718183628725</v>
       </c>
       <c r="D11">
-        <v>5.103932905953672</v>
+        <v>6.719307407615386</v>
       </c>
       <c r="E11">
-        <v>11.30290449167163</v>
+        <v>5.78774517687561</v>
       </c>
       <c r="F11">
-        <v>79.41751798541635</v>
+        <v>82.63138724548239</v>
       </c>
       <c r="G11">
-        <v>3.868414239095245</v>
+        <v>2.11644855537831</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.21944517536811</v>
+        <v>7.935388255724709</v>
       </c>
       <c r="K11">
-        <v>29.06440398518939</v>
+        <v>25.86050274280784</v>
       </c>
       <c r="L11">
-        <v>8.187927937543856</v>
+        <v>4.510213771564406</v>
       </c>
       <c r="M11">
-        <v>26.23358533601553</v>
+        <v>18.69856538877645</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.9576284282675</v>
+        <v>8.912428387531678</v>
       </c>
       <c r="D12">
-        <v>5.12684370186903</v>
+        <v>6.788507577930361</v>
       </c>
       <c r="E12">
-        <v>11.29540130598714</v>
+        <v>5.774635539804029</v>
       </c>
       <c r="F12">
-        <v>79.60197764590642</v>
+        <v>83.48770432383004</v>
       </c>
       <c r="G12">
-        <v>3.867114073089269</v>
+        <v>2.11152940754988</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.21837384369933</v>
+        <v>7.950106843539982</v>
       </c>
       <c r="K12">
-        <v>29.08955665716785</v>
+        <v>26.18376111281098</v>
       </c>
       <c r="L12">
-        <v>8.185844707161804</v>
+        <v>4.505774228327083</v>
       </c>
       <c r="M12">
-        <v>26.23160735250853</v>
+        <v>18.86398543636133</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.95714362831803</v>
+        <v>8.897151163782187</v>
       </c>
       <c r="D13">
-        <v>5.121918770460399</v>
+        <v>6.773589772153188</v>
       </c>
       <c r="E13">
-        <v>11.29700903967239</v>
+        <v>5.777445336881119</v>
       </c>
       <c r="F13">
-        <v>79.56221768280707</v>
+        <v>83.30309817873989</v>
       </c>
       <c r="G13">
-        <v>3.867393072204786</v>
+        <v>2.112590529597712</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.21859830912798</v>
+        <v>7.946905103022975</v>
       </c>
       <c r="K13">
-        <v>29.08407917446996</v>
+        <v>26.10692259584566</v>
       </c>
       <c r="L13">
-        <v>8.186291358695531</v>
+        <v>4.506727295362543</v>
       </c>
       <c r="M13">
-        <v>26.23198839312058</v>
+        <v>18.82823198385626</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.95562611792724</v>
+        <v>8.84751386978899</v>
       </c>
       <c r="D14">
-        <v>5.105821977430892</v>
+        <v>6.724994311888659</v>
       </c>
       <c r="E14">
-        <v>11.30228349852364</v>
+        <v>5.786660507897222</v>
       </c>
       <c r="F14">
-        <v>79.43267847954628</v>
+        <v>82.7017565984323</v>
       </c>
       <c r="G14">
-        <v>3.868306816067002</v>
+        <v>2.116044594627239</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.21935421344415</v>
+        <v>7.93658493959965</v>
       </c>
       <c r="K14">
-        <v>29.06644607264569</v>
+        <v>25.88631503684924</v>
       </c>
       <c r="L14">
-        <v>8.187755643106327</v>
+        <v>4.509847143788398</v>
       </c>
       <c r="M14">
-        <v>26.23340235012038</v>
+        <v>18.71211769862292</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.95474542388313</v>
+        <v>8.817249593385149</v>
       </c>
       <c r="D15">
-        <v>5.095935088564847</v>
+        <v>6.695267611094058</v>
       </c>
       <c r="E15">
-        <v>11.30553831590886</v>
+        <v>5.792344926524472</v>
       </c>
       <c r="F15">
-        <v>79.35343080133018</v>
+        <v>82.33392916204187</v>
       </c>
       <c r="G15">
-        <v>3.868869485314282</v>
+        <v>2.118155618694028</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.21983556765073</v>
+        <v>7.930355346568716</v>
       </c>
       <c r="K15">
-        <v>29.05582237614768</v>
+        <v>25.75139964942472</v>
       </c>
       <c r="L15">
-        <v>8.188658447388825</v>
+        <v>4.511767140671429</v>
       </c>
       <c r="M15">
-        <v>26.23440005777728</v>
+        <v>18.64136170685946</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.95044720419118</v>
+        <v>8.645879343878759</v>
       </c>
       <c r="D16">
-        <v>5.038867933619851</v>
+        <v>6.525417951180279</v>
       </c>
       <c r="E16">
-        <v>11.32455975308498</v>
+        <v>5.825532843629136</v>
       </c>
       <c r="F16">
-        <v>78.90087001285286</v>
+        <v>80.23292577794601</v>
       </c>
       <c r="G16">
-        <v>3.872139642112385</v>
+        <v>2.130192608573209</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.22287496204538</v>
+        <v>7.896004669912029</v>
       </c>
       <c r="K16">
-        <v>28.99766559674566</v>
+        <v>24.98118644821777</v>
       </c>
       <c r="L16">
-        <v>8.193922474306095</v>
+        <v>4.522908550689975</v>
       </c>
       <c r="M16">
-        <v>26.24213425165858</v>
+        <v>18.24130187805801</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.94847873777487</v>
+        <v>8.542507764183412</v>
       </c>
       <c r="D17">
-        <v>5.003501051205453</v>
+        <v>6.42156719318576</v>
       </c>
       <c r="E17">
-        <v>11.33655909855357</v>
+        <v>5.846441307998596</v>
       </c>
       <c r="F17">
-        <v>78.62471032117237</v>
+        <v>78.94920844990662</v>
       </c>
       <c r="G17">
-        <v>3.874186723697996</v>
+        <v>2.13753461305563</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.22499004056158</v>
+        <v>7.87607528779021</v>
       </c>
       <c r="K17">
-        <v>28.96442765007908</v>
+        <v>24.51098641409685</v>
       </c>
       <c r="L17">
-        <v>8.197232660617175</v>
+        <v>4.529868053839237</v>
       </c>
       <c r="M17">
-        <v>26.24867767276498</v>
+        <v>18.00049946383472</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.94759223159697</v>
+        <v>8.483668676817564</v>
       </c>
       <c r="D18">
-        <v>4.983030322140642</v>
+        <v>6.361925754334746</v>
       </c>
       <c r="E18">
-        <v>11.34358246786046</v>
+        <v>5.858669698878076</v>
       </c>
       <c r="F18">
-        <v>78.46643725463144</v>
+        <v>78.21241957725437</v>
       </c>
       <c r="G18">
-        <v>3.875379255364614</v>
+        <v>2.141746293699492</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.22629856385853</v>
+        <v>7.865010500428083</v>
       </c>
       <c r="K18">
-        <v>28.94620995246562</v>
+        <v>24.24127849070702</v>
       </c>
       <c r="L18">
-        <v>8.1991663904566</v>
+        <v>4.533917126691306</v>
       </c>
       <c r="M18">
-        <v>26.25310191536663</v>
+        <v>17.86362103426085</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.94733428119432</v>
+        <v>8.463850409388476</v>
       </c>
       <c r="D19">
-        <v>4.97607747632918</v>
+        <v>6.341744624407987</v>
       </c>
       <c r="E19">
-        <v>11.34598138197639</v>
+        <v>5.862844850012284</v>
       </c>
       <c r="F19">
-        <v>78.41294847046059</v>
+        <v>77.96319763544238</v>
       </c>
       <c r="G19">
-        <v>3.875785625691362</v>
+        <v>2.143170746005659</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.22675739884812</v>
+        <v>7.861330538885586</v>
       </c>
       <c r="K19">
-        <v>28.94019661288569</v>
+        <v>24.15007836388439</v>
       </c>
       <c r="L19">
-        <v>8.199826243289428</v>
+        <v>4.535296034802781</v>
       </c>
       <c r="M19">
-        <v>26.25471330997582</v>
+        <v>17.81754923982812</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.94866285648173</v>
+        <v>8.553447341618934</v>
       </c>
       <c r="D20">
-        <v>5.007279296552839</v>
+        <v>6.432612120811985</v>
       </c>
       <c r="E20">
-        <v>11.33526916229588</v>
+        <v>5.844194635120189</v>
       </c>
       <c r="F20">
-        <v>78.65404992096362</v>
+        <v>79.08569289155845</v>
       </c>
       <c r="G20">
-        <v>3.873967246394113</v>
+        <v>2.136754300260071</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.2247553649282</v>
+        <v>7.878155127452977</v>
       </c>
       <c r="K20">
-        <v>28.96787282453043</v>
+        <v>24.56096143312421</v>
       </c>
       <c r="L20">
-        <v>8.196877203358149</v>
+        <v>4.529122434720778</v>
       </c>
       <c r="M20">
-        <v>26.24791273080733</v>
+        <v>18.02596362333444</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.95606167332926</v>
+        <v>8.86206415648334</v>
       </c>
       <c r="D21">
-        <v>5.110555666885474</v>
+        <v>6.739259502806864</v>
       </c>
       <c r="E21">
-        <v>11.30072924973662</v>
+        <v>5.783945486541177</v>
       </c>
       <c r="F21">
-        <v>79.47070683513108</v>
+        <v>82.87827607704318</v>
       </c>
       <c r="G21">
-        <v>3.868037807725771</v>
+        <v>2.115031058104991</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.21912836337607</v>
+        <v>7.939596944025936</v>
       </c>
       <c r="K21">
-        <v>29.07158845962257</v>
+        <v>25.9510675457387</v>
       </c>
       <c r="L21">
-        <v>8.187324320689424</v>
+        <v>4.508928894868141</v>
       </c>
       <c r="M21">
-        <v>26.23295960628787</v>
+        <v>18.74614616645741</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.96308279343577</v>
+        <v>9.069947578442417</v>
       </c>
       <c r="D22">
-        <v>5.176845919865202</v>
+        <v>6.941332825742855</v>
       </c>
       <c r="E22">
-        <v>11.27923298524357</v>
+        <v>5.746355232659186</v>
       </c>
       <c r="F22">
-        <v>80.00893244710441</v>
+        <v>85.3788997990132</v>
       </c>
       <c r="G22">
-        <v>3.86429587245722</v>
+        <v>2.100635661569942</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.21627149155526</v>
+        <v>7.983800192016588</v>
       </c>
       <c r="K22">
-        <v>29.14730829664315</v>
+        <v>27.02245177139958</v>
       </c>
       <c r="L22">
-        <v>8.181344689004089</v>
+        <v>4.496135002322155</v>
       </c>
       <c r="M22">
-        <v>26.22907684338238</v>
+        <v>19.23306000434187</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.95913567203583</v>
+        <v>8.958390594660591</v>
       </c>
       <c r="D23">
-        <v>5.141578864851929</v>
+        <v>6.83328247778054</v>
       </c>
       <c r="E23">
-        <v>11.29060762958361</v>
+        <v>5.766255289609949</v>
       </c>
       <c r="F23">
-        <v>79.72128728325136</v>
+        <v>84.04179777964549</v>
       </c>
       <c r="G23">
-        <v>3.86628087567022</v>
+        <v>2.108342185560428</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.21772108914903</v>
+        <v>7.959810702108595</v>
       </c>
       <c r="K23">
-        <v>29.10617322975905</v>
+        <v>26.4303171317981</v>
       </c>
       <c r="L23">
-        <v>8.184512077835599</v>
+        <v>4.502926713711026</v>
       </c>
       <c r="M23">
-        <v>26.23060997953032</v>
+        <v>18.97159641011154</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.94857885267808</v>
+        <v>8.548499725699669</v>
       </c>
       <c r="D24">
-        <v>5.005571580469357</v>
+        <v>6.427618518974526</v>
       </c>
       <c r="E24">
-        <v>11.3358519537335</v>
+        <v>5.845209708402045</v>
       </c>
       <c r="F24">
-        <v>78.64078394055008</v>
+        <v>79.02398449940262</v>
       </c>
       <c r="G24">
-        <v>3.874066423364117</v>
+        <v>2.137107107750808</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.22486117356909</v>
+        <v>7.877213613419499</v>
       </c>
       <c r="K24">
-        <v>28.96631248433372</v>
+        <v>24.53836583225352</v>
       </c>
       <c r="L24">
-        <v>8.197037810068993</v>
+        <v>4.529459379644769</v>
       </c>
       <c r="M24">
-        <v>26.24825649810924</v>
+        <v>18.01444642854263</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.9465842809705</v>
+        <v>8.129818324648157</v>
       </c>
       <c r="D25">
-        <v>4.853988199574939</v>
+        <v>5.993269767771737</v>
       </c>
       <c r="E25">
-        <v>11.3893103387989</v>
+        <v>5.938120374650204</v>
       </c>
       <c r="F25">
-        <v>77.49725514481592</v>
+        <v>73.66992726236394</v>
       </c>
       <c r="G25">
-        <v>3.883042608074474</v>
+        <v>2.167740862784372</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.23607866932814</v>
+        <v>7.803142818449508</v>
       </c>
       <c r="K25">
-        <v>28.84987986193373</v>
+        <v>22.58204431773114</v>
       </c>
       <c r="L25">
-        <v>8.211689091635746</v>
+        <v>4.559849005005673</v>
       </c>
       <c r="M25">
-        <v>26.29253891553178</v>
+        <v>17.04374759255954</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.839345399421731</v>
+        <v>6.353778298551053</v>
       </c>
       <c r="D2">
-        <v>5.67305809848085</v>
+        <v>3.768703150134848</v>
       </c>
       <c r="E2">
-        <v>6.013278958132844</v>
+        <v>8.401107267899668</v>
       </c>
       <c r="F2">
-        <v>69.75214923559578</v>
+        <v>52.25432809335566</v>
       </c>
       <c r="G2">
-        <v>2.190366192449873</v>
+        <v>78.11058555286</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.935235259796066</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.214534729496882</v>
       </c>
       <c r="J2">
-        <v>7.759376414419254</v>
+        <v>20.85318815565803</v>
       </c>
       <c r="K2">
-        <v>21.15887527359585</v>
+        <v>38.56756982906629</v>
       </c>
       <c r="L2">
-        <v>4.583795694432967</v>
+        <v>7.359153224977462</v>
       </c>
       <c r="M2">
-        <v>16.37619526656854</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.206283318332821</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>25.60720851682247</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.652883635447793</v>
+        <v>6.053259980862025</v>
       </c>
       <c r="D3">
-        <v>5.454764067063392</v>
+        <v>3.687438456952017</v>
       </c>
       <c r="E3">
-        <v>6.068465251763487</v>
+        <v>8.133737196877346</v>
       </c>
       <c r="F3">
-        <v>67.10620833288897</v>
+        <v>49.4491982349607</v>
       </c>
       <c r="G3">
-        <v>2.205904744400219</v>
+        <v>73.51097883526243</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.602117077885419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.840406426493956</v>
       </c>
       <c r="J3">
-        <v>7.735557900944186</v>
+        <v>19.87932862898167</v>
       </c>
       <c r="K3">
-        <v>20.20490421130673</v>
+        <v>36.57208813904958</v>
       </c>
       <c r="L3">
-        <v>4.601030166642031</v>
+        <v>7.145823141270102</v>
       </c>
       <c r="M3">
-        <v>15.95151009686913</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.092361343860478</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.543376260922606</v>
+        <v>5.863803368858834</v>
       </c>
       <c r="D4">
-        <v>5.31988176215151</v>
+        <v>3.636787050839224</v>
       </c>
       <c r="E4">
-        <v>6.104459498027845</v>
+        <v>7.96497864744883</v>
       </c>
       <c r="F4">
-        <v>65.48571662632864</v>
+        <v>47.65457510666679</v>
       </c>
       <c r="G4">
-        <v>2.21559123332078</v>
+        <v>70.55246681902122</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.870717602325221</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.604861263406184</v>
       </c>
       <c r="J4">
-        <v>7.723565761396989</v>
+        <v>19.26052174758133</v>
       </c>
       <c r="K4">
-        <v>19.62504621828607</v>
+        <v>35.29524844094264</v>
       </c>
       <c r="L4">
-        <v>4.61211670602445</v>
+        <v>7.010800893515333</v>
       </c>
       <c r="M4">
-        <v>15.70409127202938</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.021691720347295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.499988576410018</v>
+        <v>5.783046146652969</v>
       </c>
       <c r="D5">
-        <v>5.264682372212947</v>
+        <v>3.615063876956687</v>
       </c>
       <c r="E5">
-        <v>6.119659776094996</v>
+        <v>7.89385733731891</v>
       </c>
       <c r="F5">
-        <v>64.82648236706991</v>
+        <v>46.88585350344182</v>
       </c>
       <c r="G5">
-        <v>2.219581057204144</v>
+        <v>69.28004492040151</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.983187054618142</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.507298314680357</v>
       </c>
       <c r="J5">
-        <v>7.719307325883072</v>
+        <v>18.99588321883118</v>
       </c>
       <c r="K5">
-        <v>19.39040660330859</v>
+        <v>34.74469285016599</v>
       </c>
       <c r="L5">
-        <v>4.616762645545221</v>
+        <v>6.953196875848559</v>
       </c>
       <c r="M5">
-        <v>15.60658720129881</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.99362196090232</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.492858444428975</v>
+        <v>5.766838319846538</v>
       </c>
       <c r="D6">
-        <v>5.255502015760679</v>
+        <v>3.610360349385095</v>
       </c>
       <c r="E6">
-        <v>6.122215976164309</v>
+        <v>7.880531884003281</v>
       </c>
       <c r="F6">
-        <v>64.71709003180365</v>
+        <v>46.73305336785556</v>
       </c>
       <c r="G6">
-        <v>2.220246291052334</v>
+        <v>69.02575897523562</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.00331098134229</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.491152380071204</v>
       </c>
       <c r="J6">
-        <v>7.718637245056758</v>
+        <v>18.94253969494779</v>
       </c>
       <c r="K6">
-        <v>19.35155123562884</v>
+        <v>34.63098248372614</v>
       </c>
       <c r="L6">
-        <v>4.617541871821057</v>
+        <v>6.941651315129698</v>
       </c>
       <c r="M6">
-        <v>15.59059647214273</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.990070535849473</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.54278612645011</v>
+        <v>5.855348170853237</v>
       </c>
       <c r="D7">
-        <v>5.319138290598022</v>
+        <v>3.633517546288505</v>
       </c>
       <c r="E7">
-        <v>6.104662336447304</v>
+        <v>7.960110385322283</v>
       </c>
       <c r="F7">
-        <v>65.47682118750453</v>
+        <v>47.57956941412719</v>
       </c>
       <c r="G7">
-        <v>2.215644862098921</v>
+        <v>70.42558049481001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.875842997509732</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.603345657429037</v>
       </c>
       <c r="J7">
-        <v>7.723505828329823</v>
+        <v>19.23246133486681</v>
       </c>
       <c r="K7">
-        <v>19.62187480025617</v>
+        <v>35.22999628731436</v>
       </c>
       <c r="L7">
-        <v>4.612178842565434</v>
+        <v>7.004828782212923</v>
       </c>
       <c r="M7">
-        <v>15.70276288946089</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.024356564244782</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.774009212777166</v>
+        <v>6.241759952062254</v>
       </c>
       <c r="D8">
-        <v>5.597951249914535</v>
+        <v>3.736865278266608</v>
       </c>
       <c r="E8">
-        <v>6.031870451454656</v>
+        <v>8.304821535189495</v>
       </c>
       <c r="F8">
-        <v>68.83898917961528</v>
+        <v>51.22157357921067</v>
       </c>
       <c r="G8">
-        <v>2.195697355118116</v>
+        <v>76.41652888770652</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.788901419389217</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.085140745798601</v>
       </c>
       <c r="J8">
-        <v>7.750596330247468</v>
+        <v>20.49097342570447</v>
       </c>
       <c r="K8">
-        <v>20.82881244755702</v>
+        <v>37.81799182051129</v>
       </c>
       <c r="L8">
-        <v>4.589634171256143</v>
+        <v>7.279748763158437</v>
       </c>
       <c r="M8">
-        <v>16.22697202114904</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.171103976300973</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.267964026303398</v>
+        <v>6.976012445026697</v>
       </c>
       <c r="D9">
-        <v>6.139470309236654</v>
+        <v>3.93921413403518</v>
       </c>
       <c r="E9">
-        <v>5.90578046014379</v>
+        <v>8.952031349036647</v>
       </c>
       <c r="F9">
-        <v>75.46841136114094</v>
+        <v>57.88198764289755</v>
       </c>
       <c r="G9">
-        <v>2.157435174303385</v>
+        <v>87.26466718307651</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.792934402690779</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.989804953091231</v>
       </c>
       <c r="J9">
-        <v>7.826291297391197</v>
+        <v>22.82704599288761</v>
       </c>
       <c r="K9">
-        <v>23.23811153214039</v>
+        <v>42.56804396277374</v>
       </c>
       <c r="L9">
-        <v>4.549371545230885</v>
+        <v>7.795845355715242</v>
       </c>
       <c r="M9">
-        <v>17.36310058554217</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.448069156093437</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.657760410531603</v>
+        <v>7.476875888460959</v>
       </c>
       <c r="D10">
-        <v>6.537282884631036</v>
+        <v>4.09491033883682</v>
       </c>
       <c r="E10">
-        <v>5.823174415611798</v>
+        <v>9.333385776214547</v>
       </c>
       <c r="F10">
-        <v>80.37964256209466</v>
+        <v>62.09397881014863</v>
       </c>
       <c r="G10">
-        <v>2.12935300876806</v>
+        <v>94.10578918949753</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.478316098554078</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.61439347278946</v>
       </c>
       <c r="J10">
-        <v>7.898334256417431</v>
+        <v>24.32290828130841</v>
       </c>
       <c r="K10">
-        <v>25.03494682740147</v>
+        <v>45.56548789201177</v>
       </c>
       <c r="L10">
-        <v>4.52212065015385</v>
+        <v>8.096360100921823</v>
       </c>
       <c r="M10">
-        <v>18.26900431222369</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.598672476688002</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.841718183628725</v>
+        <v>7.547090269520992</v>
       </c>
       <c r="D11">
-        <v>6.719307407615386</v>
+        <v>4.261581450566268</v>
       </c>
       <c r="E11">
-        <v>5.78774517687561</v>
+        <v>8.923590872789333</v>
       </c>
       <c r="F11">
-        <v>82.63138724548239</v>
+        <v>61.40368342486657</v>
       </c>
       <c r="G11">
-        <v>2.11644855537831</v>
+        <v>93.33714949790728</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.11195913671066</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.744708540177771</v>
       </c>
       <c r="J11">
-        <v>7.935388255724709</v>
+        <v>24.1033815374374</v>
       </c>
       <c r="K11">
-        <v>25.86050274280784</v>
+        <v>45.05615214078203</v>
       </c>
       <c r="L11">
-        <v>4.510213771564406</v>
+        <v>7.75013553589417</v>
       </c>
       <c r="M11">
-        <v>18.69856538877645</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.257060838823858</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.912428387531678</v>
+        <v>7.523518361574719</v>
       </c>
       <c r="D12">
-        <v>6.788507577930361</v>
+        <v>4.378652679025223</v>
       </c>
       <c r="E12">
-        <v>5.774635539804029</v>
+        <v>8.575306709654168</v>
       </c>
       <c r="F12">
-        <v>83.48770432383004</v>
+        <v>60.00534395657522</v>
       </c>
       <c r="G12">
-        <v>2.11152940754988</v>
+        <v>91.37955408942545</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.06231155710016</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.732617901097696</v>
       </c>
       <c r="J12">
-        <v>7.950106843539982</v>
+        <v>23.62963516021795</v>
       </c>
       <c r="K12">
-        <v>26.18376111281098</v>
+        <v>44.06176189256836</v>
       </c>
       <c r="L12">
-        <v>4.505774228327083</v>
+        <v>7.431904456018246</v>
       </c>
       <c r="M12">
-        <v>18.86398543636133</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.978634895809106</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.897151163782187</v>
+        <v>7.41597350829704</v>
       </c>
       <c r="D13">
-        <v>6.773589772153188</v>
+        <v>4.459982562978304</v>
       </c>
       <c r="E13">
-        <v>5.777445336881119</v>
+        <v>8.251292836817232</v>
       </c>
       <c r="F13">
-        <v>83.30309817873989</v>
+        <v>57.85877715801115</v>
       </c>
       <c r="G13">
-        <v>2.112590529597712</v>
+        <v>88.19669581514532</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.137791838573175</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.607907871976559</v>
       </c>
       <c r="J13">
-        <v>7.946905103022975</v>
+        <v>22.88848080844029</v>
       </c>
       <c r="K13">
-        <v>26.10692259584566</v>
+        <v>42.53554843187148</v>
       </c>
       <c r="L13">
-        <v>4.506727295362543</v>
+        <v>7.109735737064857</v>
       </c>
       <c r="M13">
-        <v>18.82823198385626</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.741752471473246</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.84751386978899</v>
+        <v>7.304276127104391</v>
       </c>
       <c r="D14">
-        <v>6.724994311888659</v>
+        <v>4.500223547251271</v>
       </c>
       <c r="E14">
-        <v>5.786660507897222</v>
+        <v>8.049838559620797</v>
       </c>
       <c r="F14">
-        <v>82.7017565984323</v>
+        <v>55.97757031353024</v>
       </c>
       <c r="G14">
-        <v>2.116044594627239</v>
+        <v>85.34899301288029</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.947467501484983</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.470495734065145</v>
       </c>
       <c r="J14">
-        <v>7.93658493959965</v>
+        <v>22.235312483984</v>
       </c>
       <c r="K14">
-        <v>25.88631503684924</v>
+        <v>41.19606268523954</v>
       </c>
       <c r="L14">
-        <v>4.509847143788398</v>
+        <v>6.888449788559445</v>
       </c>
       <c r="M14">
-        <v>18.71211769862292</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.606091523850398</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.817249593385149</v>
+        <v>7.25720415281354</v>
       </c>
       <c r="D15">
-        <v>6.695267611094058</v>
+        <v>4.500330276285643</v>
       </c>
       <c r="E15">
-        <v>5.792344926524472</v>
+        <v>7.995317397123893</v>
       </c>
       <c r="F15">
-        <v>82.33392916204187</v>
+        <v>55.33606921868051</v>
       </c>
       <c r="G15">
-        <v>2.118155618694028</v>
+        <v>84.35275316835705</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.127056466146358</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.412029739581535</v>
       </c>
       <c r="J15">
-        <v>7.930355346568716</v>
+        <v>22.01064957084988</v>
       </c>
       <c r="K15">
-        <v>25.75139964942472</v>
+        <v>40.73580837063689</v>
       </c>
       <c r="L15">
-        <v>4.511767140671429</v>
+        <v>6.828682320639625</v>
       </c>
       <c r="M15">
-        <v>18.64136170685946</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.575836335624127</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.645879343878759</v>
+        <v>7.062506454009522</v>
       </c>
       <c r="D16">
-        <v>6.525417951180279</v>
+        <v>4.415912224252166</v>
       </c>
       <c r="E16">
-        <v>5.825532843629136</v>
+        <v>7.886571511213958</v>
       </c>
       <c r="F16">
-        <v>80.23292577794601</v>
+        <v>53.85225131650155</v>
       </c>
       <c r="G16">
-        <v>2.130192608573209</v>
+        <v>81.8886311956452</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.794345096083992</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.172820473987035</v>
       </c>
       <c r="J16">
-        <v>7.896004669912029</v>
+        <v>21.48322050078809</v>
       </c>
       <c r="K16">
-        <v>24.98118644821777</v>
+        <v>39.67734045667062</v>
       </c>
       <c r="L16">
-        <v>4.522908550689975</v>
+        <v>6.757909665490073</v>
       </c>
       <c r="M16">
-        <v>18.24130187805801</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.558429372024126</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.542507764183412</v>
+        <v>6.97020963465302</v>
       </c>
       <c r="D17">
-        <v>6.42156719318576</v>
+        <v>4.328691760858114</v>
       </c>
       <c r="E17">
-        <v>5.846441307998596</v>
+        <v>7.901778375000254</v>
       </c>
       <c r="F17">
-        <v>78.94920844990662</v>
+        <v>53.73954232444893</v>
       </c>
       <c r="G17">
-        <v>2.13753461305563</v>
+        <v>81.55021399221502</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.046646610880332</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.061391941105885</v>
       </c>
       <c r="J17">
-        <v>7.87607528779021</v>
+        <v>21.43351948685463</v>
       </c>
       <c r="K17">
-        <v>24.51098641409685</v>
+        <v>39.59389211033245</v>
       </c>
       <c r="L17">
-        <v>4.529868053839237</v>
+        <v>6.817495339105442</v>
       </c>
       <c r="M17">
-        <v>18.00049946383472</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.611696101034987</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.483668676817564</v>
+        <v>6.964907223071323</v>
       </c>
       <c r="D18">
-        <v>6.361925754334746</v>
+        <v>4.233982100249296</v>
       </c>
       <c r="E18">
-        <v>5.858669698878076</v>
+        <v>8.075973207117695</v>
       </c>
       <c r="F18">
-        <v>78.21241957725437</v>
+        <v>54.84971922059374</v>
       </c>
       <c r="G18">
-        <v>2.141746293699492</v>
+        <v>83.1025767280597</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.915094836442185</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.050940400575366</v>
       </c>
       <c r="J18">
-        <v>7.865010500428083</v>
+        <v>21.80910085108477</v>
       </c>
       <c r="K18">
-        <v>24.24127849070702</v>
+        <v>40.38854935806523</v>
       </c>
       <c r="L18">
-        <v>4.533917126691306</v>
+        <v>7.021437571659103</v>
       </c>
       <c r="M18">
-        <v>17.86362103426085</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.762712908313927</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.463850409388476</v>
+        <v>7.036502024080675</v>
       </c>
       <c r="D19">
-        <v>6.341744624407987</v>
+        <v>4.135944029501213</v>
       </c>
       <c r="E19">
-        <v>5.862844850012284</v>
+        <v>8.425802641365175</v>
       </c>
       <c r="F19">
-        <v>77.96319763544238</v>
+        <v>56.73755489210935</v>
       </c>
       <c r="G19">
-        <v>2.143170746005659</v>
+        <v>85.85925946657619</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.769345735675665</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.127668293483619</v>
       </c>
       <c r="J19">
-        <v>7.861330538885586</v>
+        <v>22.45246292955624</v>
       </c>
       <c r="K19">
-        <v>24.15007836388439</v>
+        <v>41.72490201575715</v>
       </c>
       <c r="L19">
-        <v>4.535296034802781</v>
+        <v>7.349172797797341</v>
       </c>
       <c r="M19">
-        <v>17.81754923982812</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.026301783964334</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.553447341618934</v>
+        <v>7.326199040048002</v>
       </c>
       <c r="D20">
-        <v>6.432612120811985</v>
+        <v>4.045343599473611</v>
       </c>
       <c r="E20">
-        <v>5.844194635120189</v>
+        <v>9.21978668574573</v>
       </c>
       <c r="F20">
-        <v>79.08569289155845</v>
+        <v>60.83206846448154</v>
       </c>
       <c r="G20">
-        <v>2.136754300260071</v>
+        <v>92.05482572685234</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.287327025687654</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.446402902067539</v>
       </c>
       <c r="J20">
-        <v>7.878155127452977</v>
+        <v>23.86832591883461</v>
       </c>
       <c r="K20">
-        <v>24.56096143312421</v>
+        <v>44.63637292731781</v>
       </c>
       <c r="L20">
-        <v>4.529122434720778</v>
+        <v>8.001309315025571</v>
       </c>
       <c r="M20">
-        <v>18.02596362333444</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.565688650306392</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.86206415648334</v>
+        <v>7.7396397526976</v>
       </c>
       <c r="D21">
-        <v>6.739259502806864</v>
+        <v>4.148571051780565</v>
       </c>
       <c r="E21">
-        <v>5.783945486541177</v>
+        <v>9.621912954097493</v>
       </c>
       <c r="F21">
-        <v>82.87827607704318</v>
+        <v>64.43095080384475</v>
       </c>
       <c r="G21">
-        <v>2.115031058104991</v>
+        <v>97.82119930554047</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.846201803540748</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.947629379409597</v>
       </c>
       <c r="J21">
-        <v>7.939596944025936</v>
+        <v>25.1480110623367</v>
       </c>
       <c r="K21">
-        <v>25.9510675457387</v>
+        <v>47.20461019848282</v>
       </c>
       <c r="L21">
-        <v>4.508928894868141</v>
+        <v>8.318394553602888</v>
       </c>
       <c r="M21">
-        <v>18.74614616645741</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.75827770299701</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.069947578442417</v>
+        <v>8.007046667235079</v>
       </c>
       <c r="D22">
-        <v>6.941332825742855</v>
+        <v>4.225377309588523</v>
       </c>
       <c r="E22">
-        <v>5.746355232659186</v>
+        <v>9.849214127956557</v>
       </c>
       <c r="F22">
-        <v>85.3788997990132</v>
+        <v>66.63317217561507</v>
       </c>
       <c r="G22">
-        <v>2.100635661569942</v>
+        <v>101.3611999223045</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.200361589023024</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.266574571676162</v>
       </c>
       <c r="J22">
-        <v>7.983800192016588</v>
+        <v>25.93798124605722</v>
       </c>
       <c r="K22">
-        <v>27.02245177139958</v>
+        <v>48.78788583850613</v>
       </c>
       <c r="L22">
-        <v>4.496135002322155</v>
+        <v>8.499049471401761</v>
       </c>
       <c r="M22">
-        <v>19.23306000434187</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.853830628831627</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.958390594660591</v>
+        <v>7.871544491548445</v>
       </c>
       <c r="D23">
-        <v>6.83328247778054</v>
+        <v>4.187875727936394</v>
       </c>
       <c r="E23">
-        <v>5.766255289609949</v>
+        <v>9.732310026732902</v>
       </c>
       <c r="F23">
-        <v>84.04179777964549</v>
+        <v>65.52394061886366</v>
       </c>
       <c r="G23">
-        <v>2.108342185560428</v>
+        <v>99.58213187609672</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.015625717052258</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.098487695596409</v>
       </c>
       <c r="J23">
-        <v>7.959810702108595</v>
+        <v>25.54169836328879</v>
       </c>
       <c r="K23">
-        <v>26.4303171317981</v>
+        <v>48.00134553072812</v>
       </c>
       <c r="L23">
-        <v>4.502926713711026</v>
+        <v>8.408359339173948</v>
       </c>
       <c r="M23">
-        <v>18.97159641011154</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.799558199141642</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.548499725699669</v>
+        <v>7.344878241727567</v>
       </c>
       <c r="D24">
-        <v>6.427618518974526</v>
+        <v>4.040031058745804</v>
       </c>
       <c r="E24">
-        <v>5.845209708402045</v>
+        <v>9.277526640028432</v>
       </c>
       <c r="F24">
-        <v>79.02398449940262</v>
+        <v>61.09663458564339</v>
       </c>
       <c r="G24">
-        <v>2.137107107750808</v>
+        <v>92.45640139130403</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.303922081472344</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.454062028136337</v>
       </c>
       <c r="J24">
-        <v>7.877213613419499</v>
+        <v>23.96291125380256</v>
       </c>
       <c r="K24">
-        <v>24.53836583225352</v>
+        <v>44.84277270892309</v>
       </c>
       <c r="L24">
-        <v>4.529459379644769</v>
+        <v>8.050235482527112</v>
       </c>
       <c r="M24">
-        <v>18.01444642854263</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.59843301243207</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.129818324648157</v>
+        <v>6.768796347932842</v>
       </c>
       <c r="D25">
-        <v>5.993269767771737</v>
+        <v>3.879624353703434</v>
       </c>
       <c r="E25">
-        <v>5.938120374650204</v>
+        <v>8.773931801935053</v>
       </c>
       <c r="F25">
-        <v>73.66992726236394</v>
+        <v>56.04246704925108</v>
       </c>
       <c r="G25">
-        <v>2.167740862784372</v>
+        <v>84.27553831567016</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.52026139672388</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.74678426429813</v>
       </c>
       <c r="J25">
-        <v>7.803142818449508</v>
+        <v>22.17495982524246</v>
       </c>
       <c r="K25">
-        <v>22.58204431773114</v>
+        <v>41.23739135763937</v>
       </c>
       <c r="L25">
-        <v>4.559849005005673</v>
+        <v>7.650822821513987</v>
       </c>
       <c r="M25">
-        <v>17.04374759255954</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.378970790350082</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.353778298551053</v>
+        <v>5.913629325533571</v>
       </c>
       <c r="D2">
-        <v>3.768703150134848</v>
+        <v>3.612392188397564</v>
       </c>
       <c r="E2">
-        <v>8.401107267899668</v>
+        <v>8.032518424418141</v>
       </c>
       <c r="F2">
-        <v>52.25432809335566</v>
+        <v>46.2356368366105</v>
       </c>
       <c r="G2">
-        <v>78.11058555286</v>
+        <v>67.6270042439765</v>
       </c>
       <c r="H2">
-        <v>1.935235259796066</v>
+        <v>1.7802702527247</v>
       </c>
       <c r="I2">
-        <v>3.214534729496882</v>
+        <v>3.08964973986494</v>
       </c>
       <c r="J2">
-        <v>20.85318815565803</v>
+        <v>18.91110352296165</v>
       </c>
       <c r="K2">
-        <v>38.56756982906629</v>
+        <v>33.09968020393895</v>
       </c>
       <c r="L2">
-        <v>7.359153224977462</v>
+        <v>26.4834019523734</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>23.23211596206146</v>
       </c>
       <c r="N2">
-        <v>6.206283318332821</v>
+        <v>6.855638761057442</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682247</v>
+        <v>6.705660637548506</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.053259980862025</v>
+        <v>5.571692688565591</v>
       </c>
       <c r="D3">
-        <v>3.687438456952017</v>
+        <v>3.586539269132529</v>
       </c>
       <c r="E3">
-        <v>8.133737196877346</v>
+        <v>7.824738533981007</v>
       </c>
       <c r="F3">
-        <v>49.4491982349607</v>
+        <v>43.96587338627718</v>
       </c>
       <c r="G3">
-        <v>73.51097883526243</v>
+        <v>63.91269216902906</v>
       </c>
       <c r="H3">
-        <v>1.602117077885419</v>
+        <v>1.684695582100361</v>
       </c>
       <c r="I3">
-        <v>2.840406426493956</v>
+        <v>2.795442801392026</v>
       </c>
       <c r="J3">
-        <v>19.87932862898167</v>
+        <v>18.11713111295817</v>
       </c>
       <c r="K3">
-        <v>36.57208813904958</v>
+        <v>31.58260862002861</v>
       </c>
       <c r="L3">
-        <v>7.145823141270102</v>
+        <v>25.59409663912842</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>21.80805662963351</v>
       </c>
       <c r="N3">
-        <v>6.092361343860478</v>
+        <v>6.699351027241145</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>6.571625801317311</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.863803368858834</v>
+        <v>5.35676332523252</v>
       </c>
       <c r="D4">
-        <v>3.636787050839224</v>
+        <v>3.570736901464377</v>
       </c>
       <c r="E4">
-        <v>7.96497864744883</v>
+        <v>7.693359784467876</v>
       </c>
       <c r="F4">
-        <v>47.65457510666679</v>
+        <v>42.5121010497335</v>
       </c>
       <c r="G4">
-        <v>70.55246681902122</v>
+        <v>61.52398343214591</v>
       </c>
       <c r="H4">
-        <v>1.870717602325221</v>
+        <v>1.906099551576709</v>
       </c>
       <c r="I4">
-        <v>2.604861263406184</v>
+        <v>2.609659275243132</v>
       </c>
       <c r="J4">
-        <v>19.26052174758133</v>
+        <v>17.60937713829382</v>
       </c>
       <c r="K4">
-        <v>35.29524844094264</v>
+        <v>30.61047464290782</v>
       </c>
       <c r="L4">
-        <v>7.010800893515333</v>
+        <v>25.01619671014688</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>20.90679396720981</v>
       </c>
       <c r="N4">
-        <v>6.021691720347295</v>
+        <v>6.600099047005063</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>6.48880109379813</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.783046146652969</v>
+        <v>5.270925449063903</v>
       </c>
       <c r="D5">
-        <v>3.615063876956687</v>
+        <v>3.564019262893674</v>
       </c>
       <c r="E5">
-        <v>7.89385733731891</v>
+        <v>7.637893064508752</v>
       </c>
       <c r="F5">
-        <v>46.88585350344182</v>
+        <v>41.88719828762937</v>
       </c>
       <c r="G5">
-        <v>69.28004492040151</v>
+        <v>60.49346350536925</v>
       </c>
       <c r="H5">
-        <v>1.983187054618142</v>
+        <v>1.998991143552185</v>
       </c>
       <c r="I5">
-        <v>2.507298314680357</v>
+        <v>2.533075524126659</v>
       </c>
       <c r="J5">
-        <v>18.99588321883118</v>
+        <v>17.39080252816088</v>
       </c>
       <c r="K5">
-        <v>34.74469285016599</v>
+        <v>30.18863057106589</v>
       </c>
       <c r="L5">
-        <v>6.953196875848559</v>
+        <v>24.76046227731222</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>20.52176702205158</v>
       </c>
       <c r="N5">
-        <v>5.99362196090232</v>
+        <v>6.557552611869142</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>6.455977881085722</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.766838319846538</v>
+        <v>5.260320091570757</v>
       </c>
       <c r="D6">
-        <v>3.610360349385095</v>
+        <v>3.562554897985288</v>
       </c>
       <c r="E6">
-        <v>7.880531884003281</v>
+        <v>7.627442274012115</v>
       </c>
       <c r="F6">
-        <v>46.73305336785556</v>
+        <v>41.76078093430166</v>
       </c>
       <c r="G6">
-        <v>69.02575897523562</v>
+        <v>60.28351081773901</v>
       </c>
       <c r="H6">
-        <v>2.00331098134229</v>
+        <v>2.01559199200084</v>
       </c>
       <c r="I6">
-        <v>2.491152380071204</v>
+        <v>2.521083515623025</v>
       </c>
       <c r="J6">
-        <v>18.94253969494779</v>
+        <v>17.34596479031214</v>
       </c>
       <c r="K6">
-        <v>34.63098248372614</v>
+        <v>30.09870078851951</v>
       </c>
       <c r="L6">
-        <v>6.941651315129698</v>
+        <v>24.70255217288823</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>20.4432035462753</v>
       </c>
       <c r="N6">
-        <v>5.990070535849473</v>
+        <v>6.548879839245571</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>6.451806574469708</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.855348170853237</v>
+        <v>5.361558245647414</v>
       </c>
       <c r="D7">
-        <v>3.633517546288505</v>
+        <v>3.569045590559007</v>
       </c>
       <c r="E7">
-        <v>7.960110385322283</v>
+        <v>7.690651656087081</v>
       </c>
       <c r="F7">
-        <v>47.57956941412719</v>
+        <v>42.41117290191062</v>
       </c>
       <c r="G7">
-        <v>70.42558049481001</v>
+        <v>61.48635961271515</v>
       </c>
       <c r="H7">
-        <v>1.875842997509732</v>
+        <v>1.911420197435146</v>
       </c>
       <c r="I7">
-        <v>2.603345657429037</v>
+        <v>2.60907933785429</v>
       </c>
       <c r="J7">
-        <v>19.23246133486681</v>
+        <v>17.50783662852719</v>
       </c>
       <c r="K7">
-        <v>35.22999628731436</v>
+        <v>30.52927314629137</v>
       </c>
       <c r="L7">
-        <v>7.004828782212923</v>
+        <v>24.95451437467556</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>20.84539750782706</v>
       </c>
       <c r="N7">
-        <v>6.024356564244782</v>
+        <v>6.594488152237998</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>6.491399020804628</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.241759952062254</v>
+        <v>5.796659991111734</v>
       </c>
       <c r="D8">
-        <v>3.736865278266608</v>
+        <v>3.600141425790367</v>
       </c>
       <c r="E8">
-        <v>8.304821535189495</v>
+        <v>7.961659058197442</v>
       </c>
       <c r="F8">
-        <v>51.22157357921067</v>
+        <v>45.28634715027266</v>
       </c>
       <c r="G8">
-        <v>76.41652888770652</v>
+        <v>66.48123468618911</v>
       </c>
       <c r="H8">
-        <v>1.788901419389217</v>
+        <v>1.656859817611689</v>
       </c>
       <c r="I8">
-        <v>3.085140745798601</v>
+        <v>2.986522724578441</v>
       </c>
       <c r="J8">
-        <v>20.49097342570447</v>
+        <v>18.37270324033528</v>
       </c>
       <c r="K8">
-        <v>37.81799182051129</v>
+        <v>32.44603239566204</v>
       </c>
       <c r="L8">
-        <v>7.279748763158437</v>
+        <v>26.07732549331381</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>22.64239369305003</v>
       </c>
       <c r="N8">
-        <v>6.171103976300973</v>
+        <v>6.794425411835372</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>6.662672266333962</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.976012445026697</v>
+        <v>6.60975393224015</v>
       </c>
       <c r="D9">
-        <v>3.93921413403518</v>
+        <v>3.666037898080525</v>
       </c>
       <c r="E9">
-        <v>8.952031349036647</v>
+        <v>8.46422823793929</v>
       </c>
       <c r="F9">
-        <v>57.88198764289755</v>
+        <v>50.6541830984888</v>
       </c>
       <c r="G9">
-        <v>87.26466718307651</v>
+        <v>75.28405097876542</v>
       </c>
       <c r="H9">
-        <v>2.792934402690779</v>
+        <v>2.474536293727182</v>
       </c>
       <c r="I9">
-        <v>3.989804953091231</v>
+        <v>3.691594849338709</v>
       </c>
       <c r="J9">
-        <v>22.82704599288761</v>
+        <v>20.22012003642802</v>
       </c>
       <c r="K9">
-        <v>42.56804396277374</v>
+        <v>36.04493901311067</v>
       </c>
       <c r="L9">
-        <v>7.795845355715242</v>
+        <v>28.15811718537585</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>26.06009755856612</v>
       </c>
       <c r="N9">
-        <v>6.448069156093437</v>
+        <v>7.170647186209897</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>6.989391742734137</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.476875888460959</v>
+        <v>7.174334215461976</v>
       </c>
       <c r="D10">
-        <v>4.09491033883682</v>
+        <v>3.719377535047039</v>
       </c>
       <c r="E10">
-        <v>9.333385776214547</v>
+        <v>8.756856846574786</v>
       </c>
       <c r="F10">
-        <v>62.09397881014863</v>
+        <v>53.85936501494069</v>
       </c>
       <c r="G10">
-        <v>94.10578918949753</v>
+        <v>81.15986203475464</v>
       </c>
       <c r="H10">
-        <v>3.478316098554078</v>
+        <v>3.02235017620271</v>
       </c>
       <c r="I10">
-        <v>4.61439347278946</v>
+        <v>4.170400767910128</v>
       </c>
       <c r="J10">
-        <v>24.32290828130841</v>
+        <v>21.01128087398549</v>
       </c>
       <c r="K10">
-        <v>45.56548789201177</v>
+        <v>38.17895087286759</v>
       </c>
       <c r="L10">
-        <v>8.096360100921823</v>
+        <v>29.31000450652904</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>28.17798155893295</v>
       </c>
       <c r="N10">
-        <v>6.598672476688002</v>
+        <v>7.37867180520726</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>7.16330452034637</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.547090269520992</v>
+        <v>7.435949560955038</v>
       </c>
       <c r="D11">
-        <v>4.261581450566268</v>
+        <v>3.800171355963847</v>
       </c>
       <c r="E11">
-        <v>8.923590872789333</v>
+        <v>8.385615734030747</v>
       </c>
       <c r="F11">
-        <v>61.40368342486657</v>
+        <v>52.83395321840423</v>
       </c>
       <c r="G11">
-        <v>93.33714949790728</v>
+        <v>81.16797598654392</v>
       </c>
       <c r="H11">
-        <v>4.11195913671066</v>
+        <v>3.701552562582974</v>
       </c>
       <c r="I11">
-        <v>4.744708540177771</v>
+        <v>4.270252102382141</v>
       </c>
       <c r="J11">
-        <v>24.1033815374374</v>
+        <v>20.00333906076496</v>
       </c>
       <c r="K11">
-        <v>45.05615214078203</v>
+        <v>37.44152873509464</v>
       </c>
       <c r="L11">
-        <v>7.75013553589417</v>
+        <v>28.55596292558207</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>27.83582772696609</v>
       </c>
       <c r="N11">
-        <v>6.257060838823858</v>
+        <v>7.081175254637249</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>6.729656791203628</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.523518361574719</v>
+        <v>7.541084829324404</v>
       </c>
       <c r="D12">
-        <v>4.378652679025223</v>
+        <v>3.864667680214985</v>
       </c>
       <c r="E12">
-        <v>8.575306709654168</v>
+        <v>8.085454373518159</v>
       </c>
       <c r="F12">
-        <v>60.00534395657522</v>
+        <v>51.45260455226834</v>
       </c>
       <c r="G12">
-        <v>91.37955408942545</v>
+        <v>79.84745441866947</v>
       </c>
       <c r="H12">
-        <v>5.06231155710016</v>
+        <v>4.743415276563346</v>
       </c>
       <c r="I12">
-        <v>4.732617901097696</v>
+        <v>4.262611842523528</v>
       </c>
       <c r="J12">
-        <v>23.62963516021795</v>
+        <v>19.23603736028728</v>
       </c>
       <c r="K12">
-        <v>44.06176189256836</v>
+        <v>36.49671134943733</v>
       </c>
       <c r="L12">
-        <v>7.431904456018246</v>
+        <v>27.77508168554487</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>27.1968423549121</v>
       </c>
       <c r="N12">
-        <v>5.978634895809106</v>
+        <v>6.831408602333948</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>6.358170699952515</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.41597350829704</v>
+        <v>7.558094085447801</v>
       </c>
       <c r="D13">
-        <v>4.459982562978304</v>
+        <v>3.925280557158579</v>
       </c>
       <c r="E13">
-        <v>8.251292836817232</v>
+        <v>7.823719846155036</v>
       </c>
       <c r="F13">
-        <v>57.85877715801115</v>
+        <v>49.67233619656605</v>
       </c>
       <c r="G13">
-        <v>88.19669581514532</v>
+        <v>77.10572739849418</v>
       </c>
       <c r="H13">
-        <v>6.137791838573175</v>
+        <v>5.906963789350426</v>
       </c>
       <c r="I13">
-        <v>4.607907871976559</v>
+        <v>4.17383157680973</v>
       </c>
       <c r="J13">
-        <v>22.88848080844029</v>
+        <v>18.72023597503609</v>
       </c>
       <c r="K13">
-        <v>42.53554843187148</v>
+        <v>35.29422172363922</v>
       </c>
       <c r="L13">
-        <v>7.109735737064857</v>
+        <v>26.89267468268958</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>26.26126353960317</v>
       </c>
       <c r="N13">
-        <v>5.741752471473246</v>
+        <v>6.599534603352243</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>6.023637177264735</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.304276127104391</v>
+        <v>7.536081335625779</v>
       </c>
       <c r="D14">
-        <v>4.500223547251271</v>
+        <v>3.968784570647289</v>
       </c>
       <c r="E14">
-        <v>8.049838559620797</v>
+        <v>7.675563904238681</v>
       </c>
       <c r="F14">
-        <v>55.97757031353024</v>
+        <v>48.20691530564309</v>
       </c>
       <c r="G14">
-        <v>85.34899301288029</v>
+        <v>74.48967235328206</v>
       </c>
       <c r="H14">
-        <v>6.947467501484983</v>
+        <v>6.769649668161147</v>
       </c>
       <c r="I14">
-        <v>4.470495734065145</v>
+        <v>4.075733481241313</v>
       </c>
       <c r="J14">
-        <v>22.235312483984</v>
+        <v>18.45304607904402</v>
       </c>
       <c r="K14">
-        <v>41.19606268523954</v>
+        <v>34.3073850315316</v>
       </c>
       <c r="L14">
-        <v>6.888449788559445</v>
+        <v>26.20724053959761</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>25.45059554602294</v>
       </c>
       <c r="N14">
-        <v>5.606091523850398</v>
+        <v>6.451426010054681</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>5.817696785396029</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.25720415281354</v>
+        <v>7.51599713679461</v>
       </c>
       <c r="D15">
-        <v>4.500330276285643</v>
+        <v>3.977788653111203</v>
       </c>
       <c r="E15">
-        <v>7.995317397123893</v>
+        <v>7.638003735900824</v>
       </c>
       <c r="F15">
-        <v>55.33606921868051</v>
+        <v>47.73865640157409</v>
       </c>
       <c r="G15">
-        <v>84.35275316835705</v>
+        <v>73.52240535403683</v>
       </c>
       <c r="H15">
-        <v>7.127056466146358</v>
+        <v>6.963733192104837</v>
       </c>
       <c r="I15">
-        <v>4.412029739581535</v>
+        <v>4.034221550417386</v>
       </c>
       <c r="J15">
-        <v>22.01064957084988</v>
+        <v>18.42126930512156</v>
       </c>
       <c r="K15">
-        <v>40.73580837063689</v>
+        <v>33.99024908686634</v>
       </c>
       <c r="L15">
-        <v>6.828682320639625</v>
+        <v>26.0016193676851</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>25.17346769661441</v>
       </c>
       <c r="N15">
-        <v>5.575836335624127</v>
+        <v>6.413181104670379</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>5.771563283349558</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>31.28998244549472</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.062506454009522</v>
+        <v>7.323097937447644</v>
       </c>
       <c r="D16">
-        <v>4.415912224252166</v>
+        <v>3.9580651319725</v>
       </c>
       <c r="E16">
-        <v>7.886571511213958</v>
+        <v>7.558305222129434</v>
       </c>
       <c r="F16">
-        <v>53.85225131650155</v>
+        <v>46.86578987560399</v>
       </c>
       <c r="G16">
-        <v>81.8886311956452</v>
+        <v>70.85689190922159</v>
       </c>
       <c r="H16">
-        <v>6.794345096083992</v>
+        <v>6.661053794445737</v>
       </c>
       <c r="I16">
-        <v>4.172820473987035</v>
+        <v>3.857856356361796</v>
       </c>
       <c r="J16">
-        <v>21.48322050078809</v>
+        <v>18.71579986492349</v>
       </c>
       <c r="K16">
-        <v>39.67734045667062</v>
+        <v>33.41725440003613</v>
       </c>
       <c r="L16">
-        <v>6.757909665490073</v>
+        <v>25.75115128449769</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>24.53531693136918</v>
       </c>
       <c r="N16">
-        <v>5.558429372024126</v>
+        <v>6.368738890192367</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>5.768830555167046</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>30.42464283346099</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.97020963465302</v>
+        <v>7.176412566928422</v>
       </c>
       <c r="D17">
-        <v>4.328691760858114</v>
+        <v>3.913631306797558</v>
       </c>
       <c r="E17">
-        <v>7.901778375000254</v>
+        <v>7.56375163604964</v>
       </c>
       <c r="F17">
-        <v>53.73954232444893</v>
+        <v>46.95623490797772</v>
       </c>
       <c r="G17">
-        <v>81.55021399221502</v>
+        <v>70.33125046334217</v>
       </c>
       <c r="H17">
-        <v>6.046646610880332</v>
+        <v>5.913740983531864</v>
       </c>
       <c r="I17">
-        <v>4.061391941105885</v>
+        <v>3.772953317782366</v>
       </c>
       <c r="J17">
-        <v>21.43351948685463</v>
+        <v>18.99486227803622</v>
       </c>
       <c r="K17">
-        <v>39.59389211033245</v>
+        <v>33.48684927585256</v>
       </c>
       <c r="L17">
-        <v>6.817495339105442</v>
+        <v>25.91339206331857</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>24.46424178149602</v>
       </c>
       <c r="N17">
-        <v>5.611696101034987</v>
+        <v>6.409077311773424</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>5.870252733475338</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.964907223071323</v>
+        <v>7.05445582312877</v>
       </c>
       <c r="D18">
-        <v>4.233982100249296</v>
+        <v>3.850502095676526</v>
       </c>
       <c r="E18">
-        <v>8.075973207117695</v>
+        <v>7.694033533694741</v>
       </c>
       <c r="F18">
-        <v>54.84971922059374</v>
+        <v>47.9928388647954</v>
       </c>
       <c r="G18">
-        <v>83.1025767280597</v>
+        <v>71.54826625733784</v>
       </c>
       <c r="H18">
-        <v>4.915094836442185</v>
+        <v>4.749830121565403</v>
       </c>
       <c r="I18">
-        <v>4.050940400575366</v>
+        <v>3.760160481615792</v>
       </c>
       <c r="J18">
-        <v>21.80910085108477</v>
+        <v>19.44545114807311</v>
       </c>
       <c r="K18">
-        <v>40.38854935806523</v>
+        <v>34.20045004545615</v>
       </c>
       <c r="L18">
-        <v>7.021437571659103</v>
+        <v>26.5130862441072</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>24.93571576094235</v>
       </c>
       <c r="N18">
-        <v>5.762712908313927</v>
+        <v>6.554699511900353</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>6.100059025617146</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>29.5640428768043</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.036502024080675</v>
+        <v>6.991649275533803</v>
       </c>
       <c r="D19">
-        <v>4.135944029501213</v>
+        <v>3.780304386350149</v>
       </c>
       <c r="E19">
-        <v>8.425802641365175</v>
+        <v>7.980847192968782</v>
       </c>
       <c r="F19">
-        <v>56.73755489210935</v>
+        <v>49.62679016323596</v>
       </c>
       <c r="G19">
-        <v>85.85925946657619</v>
+        <v>73.8382083756234</v>
       </c>
       <c r="H19">
-        <v>3.769345735675665</v>
+        <v>3.525260858850021</v>
       </c>
       <c r="I19">
-        <v>4.127668293483619</v>
+        <v>3.81511461918974</v>
       </c>
       <c r="J19">
-        <v>22.45246292955624</v>
+        <v>20.01730346543161</v>
       </c>
       <c r="K19">
-        <v>41.72490201575715</v>
+        <v>35.30262686908664</v>
       </c>
       <c r="L19">
-        <v>7.349172797797341</v>
+        <v>27.3641588601171</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>25.74958742618589</v>
       </c>
       <c r="N19">
-        <v>6.026301783964334</v>
+        <v>6.802394610670174</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>6.457548931201288</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.326199040048002</v>
+        <v>7.067146641379331</v>
       </c>
       <c r="D20">
-        <v>4.045343599473611</v>
+        <v>3.704521831804012</v>
       </c>
       <c r="E20">
-        <v>9.21978668574573</v>
+        <v>8.664791999265871</v>
       </c>
       <c r="F20">
-        <v>60.83206846448154</v>
+        <v>52.97548866033512</v>
       </c>
       <c r="G20">
-        <v>92.05482572685234</v>
+        <v>79.1715172945995</v>
       </c>
       <c r="H20">
-        <v>3.287327025687654</v>
+        <v>2.873714395520361</v>
       </c>
       <c r="I20">
-        <v>4.446402902067539</v>
+        <v>4.050438651935801</v>
       </c>
       <c r="J20">
-        <v>23.86832591883461</v>
+        <v>20.97651163635065</v>
       </c>
       <c r="K20">
-        <v>44.63637292731781</v>
+        <v>37.56006104226492</v>
       </c>
       <c r="L20">
-        <v>8.001309315025571</v>
+        <v>28.9623166521236</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>27.57835562924128</v>
       </c>
       <c r="N20">
-        <v>6.565688650306392</v>
+        <v>7.313602661246907</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>7.126696913394309</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.7396397526976</v>
+        <v>7.423137515718579</v>
       </c>
       <c r="D21">
-        <v>4.148571051780565</v>
+        <v>3.729762497735594</v>
       </c>
       <c r="E21">
-        <v>9.621912954097493</v>
+        <v>9.010622864683935</v>
       </c>
       <c r="F21">
-        <v>64.43095080384475</v>
+        <v>55.24411034613943</v>
       </c>
       <c r="G21">
-        <v>97.82119930554047</v>
+        <v>85.2150371976459</v>
       </c>
       <c r="H21">
-        <v>3.846201803540748</v>
+        <v>3.299399878648964</v>
       </c>
       <c r="I21">
-        <v>4.947629379409597</v>
+        <v>4.413989536366483</v>
       </c>
       <c r="J21">
-        <v>25.1480110623367</v>
+        <v>20.51822790233752</v>
       </c>
       <c r="K21">
-        <v>47.20461019848282</v>
+        <v>39.06303929129458</v>
       </c>
       <c r="L21">
-        <v>8.318394553602888</v>
+        <v>29.75169663270557</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>29.09645049909226</v>
       </c>
       <c r="N21">
-        <v>6.75827770299701</v>
+        <v>7.530990816220348</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>7.345631258590439</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.007046667235079</v>
+        <v>7.647026218860605</v>
       </c>
       <c r="D22">
-        <v>4.225377309588523</v>
+        <v>3.754729165141828</v>
       </c>
       <c r="E22">
-        <v>9.849214127956557</v>
+        <v>9.207360806699944</v>
       </c>
       <c r="F22">
-        <v>66.63317217561507</v>
+        <v>56.5795265603918</v>
       </c>
       <c r="G22">
-        <v>101.3611999223045</v>
+        <v>89.0220590707582</v>
       </c>
       <c r="H22">
-        <v>4.200361589023024</v>
+        <v>3.567080179969935</v>
       </c>
       <c r="I22">
-        <v>5.266574571676162</v>
+        <v>4.64196526987494</v>
       </c>
       <c r="J22">
-        <v>25.93798124605722</v>
+        <v>20.12167733748828</v>
       </c>
       <c r="K22">
-        <v>48.78788583850613</v>
+        <v>39.95636849014056</v>
       </c>
       <c r="L22">
-        <v>8.499049471401761</v>
+        <v>30.2038306127993</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>30.0177049972837</v>
       </c>
       <c r="N22">
-        <v>6.853830628831627</v>
+        <v>7.650673702896473</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>7.451677537368306</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.871544491548445</v>
+        <v>7.525611968877601</v>
       </c>
       <c r="D23">
-        <v>4.187875727936394</v>
+        <v>3.742102144312299</v>
       </c>
       <c r="E23">
-        <v>9.732310026732902</v>
+        <v>9.102332339587219</v>
       </c>
       <c r="F23">
-        <v>65.52394061886366</v>
+        <v>55.99443313108418</v>
       </c>
       <c r="G23">
-        <v>99.58213187609672</v>
+        <v>86.93901789379602</v>
       </c>
       <c r="H23">
-        <v>4.015625717052258</v>
+        <v>3.42975466193953</v>
       </c>
       <c r="I23">
-        <v>5.098487695596409</v>
+        <v>4.522158736747255</v>
       </c>
       <c r="J23">
-        <v>25.54169836328879</v>
+        <v>20.51607572652226</v>
       </c>
       <c r="K23">
-        <v>48.00134553072812</v>
+        <v>39.5797911101654</v>
       </c>
       <c r="L23">
-        <v>8.408359339173948</v>
+        <v>30.03710694516939</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>29.60260900793397</v>
       </c>
       <c r="N23">
-        <v>6.799558199141642</v>
+        <v>7.593061643980109</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>7.392278227926806</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.344878241727567</v>
+        <v>7.042029727493252</v>
       </c>
       <c r="D24">
-        <v>4.040031058745804</v>
+        <v>3.700068926807852</v>
       </c>
       <c r="E24">
-        <v>9.277526640028432</v>
+        <v>8.716207694154859</v>
       </c>
       <c r="F24">
-        <v>61.09663458564339</v>
+        <v>53.21287876436975</v>
       </c>
       <c r="G24">
-        <v>92.45640139130403</v>
+        <v>79.50846410740662</v>
       </c>
       <c r="H24">
-        <v>3.303922081472344</v>
+        <v>2.886433653605732</v>
       </c>
       <c r="I24">
-        <v>4.454062028136337</v>
+        <v>4.052599310721049</v>
       </c>
       <c r="J24">
-        <v>23.96291125380256</v>
+        <v>21.07077307872112</v>
       </c>
       <c r="K24">
-        <v>44.84277270892309</v>
+        <v>37.74031032631866</v>
       </c>
       <c r="L24">
-        <v>8.050235482527112</v>
+        <v>29.10377704894089</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>27.70923682427356</v>
       </c>
       <c r="N24">
-        <v>6.59843301243207</v>
+        <v>7.353988522031305</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>7.166575369632937</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.768796347932842</v>
+        <v>6.415515957506747</v>
       </c>
       <c r="D25">
-        <v>3.879624353703434</v>
+        <v>3.647143044150523</v>
       </c>
       <c r="E25">
-        <v>8.773931801935053</v>
+        <v>8.324265243698974</v>
       </c>
       <c r="F25">
-        <v>56.04246704925108</v>
+        <v>49.20670826775901</v>
       </c>
       <c r="G25">
-        <v>84.27553831567016</v>
+        <v>72.75040819686141</v>
       </c>
       <c r="H25">
-        <v>2.52026139672388</v>
+        <v>2.255175295372294</v>
       </c>
       <c r="I25">
-        <v>3.74678426429813</v>
+        <v>3.507135438087659</v>
       </c>
       <c r="J25">
-        <v>22.17495982524246</v>
+        <v>19.80029795664085</v>
       </c>
       <c r="K25">
-        <v>41.23739135763937</v>
+        <v>35.05560679430456</v>
       </c>
       <c r="L25">
-        <v>7.650822821513987</v>
+        <v>27.58238908660687</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>25.12376546914732</v>
       </c>
       <c r="N25">
-        <v>6.378970790350082</v>
+        <v>7.065623085389065</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>6.908284602810628</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
